--- a/src/output/resultsByAge10.xlsx
+++ b/src/output/resultsByAge10.xlsx
@@ -346,4272 +346,4272 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>445.0</v>
+        <v>415.0</v>
       </c>
       <c r="B1" t="n">
-        <v>155.0</v>
+        <v>114.0</v>
       </c>
       <c r="C1" t="n">
-        <v>109.0</v>
+        <v>100.0</v>
       </c>
       <c r="D1" t="n">
-        <v>534.0</v>
+        <v>550.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>420.0</v>
+        <v>363.0</v>
       </c>
       <c r="B2" t="n">
-        <v>120.0</v>
+        <v>124.0</v>
       </c>
       <c r="C2" t="n">
-        <v>105.0</v>
+        <v>88.0</v>
       </c>
       <c r="D2" t="n">
-        <v>561.0</v>
+        <v>549.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>409.0</v>
+        <v>329.0</v>
       </c>
       <c r="B3" t="n">
-        <v>123.0</v>
+        <v>128.0</v>
       </c>
       <c r="C3" t="n">
-        <v>128.0</v>
+        <v>93.0</v>
       </c>
       <c r="D3" t="n">
-        <v>822.0</v>
+        <v>631.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>342.0</v>
+        <v>266.0</v>
       </c>
       <c r="B4" t="n">
-        <v>136.0</v>
+        <v>118.0</v>
       </c>
       <c r="C4" t="n">
-        <v>152.0</v>
+        <v>106.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1304.0</v>
+        <v>749.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>314.0</v>
+        <v>256.0</v>
       </c>
       <c r="B5" t="n">
-        <v>154.0</v>
+        <v>106.0</v>
       </c>
       <c r="C5" t="n">
-        <v>139.0</v>
+        <v>123.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.0</v>
+        <v>809.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>294.0</v>
+        <v>236.0</v>
       </c>
       <c r="B6" t="n">
-        <v>122.0</v>
+        <v>85.0</v>
       </c>
       <c r="C6" t="n">
-        <v>169.0</v>
+        <v>98.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1334.0</v>
+        <v>835.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>253.0</v>
+        <v>182.0</v>
       </c>
       <c r="B7" t="n">
-        <v>139.0</v>
+        <v>97.0</v>
       </c>
       <c r="C7" t="n">
-        <v>133.0</v>
+        <v>117.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1188.0</v>
+        <v>818.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>191.0</v>
+        <v>150.0</v>
       </c>
       <c r="B8" t="n">
-        <v>120.0</v>
+        <v>78.0</v>
       </c>
       <c r="C8" t="n">
-        <v>125.0</v>
+        <v>113.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1083.0</v>
+        <v>810.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>204.0</v>
+        <v>154.0</v>
       </c>
       <c r="B9" t="n">
-        <v>119.0</v>
+        <v>90.0</v>
       </c>
       <c r="C9" t="n">
-        <v>128.0</v>
+        <v>95.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1104.0</v>
+        <v>966.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>176.0</v>
+        <v>140.0</v>
       </c>
       <c r="B10" t="n">
-        <v>113.0</v>
+        <v>87.0</v>
       </c>
       <c r="C10" t="n">
-        <v>115.0</v>
+        <v>89.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1019.0</v>
+        <v>898.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>180.0</v>
+        <v>113.0</v>
       </c>
       <c r="B11" t="n">
-        <v>100.0</v>
+        <v>70.0</v>
       </c>
       <c r="C11" t="n">
-        <v>123.0</v>
+        <v>97.0</v>
       </c>
       <c r="D11" t="n">
-        <v>973.0</v>
+        <v>779.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>107.0</v>
+        <v>122.0</v>
       </c>
       <c r="B12" t="n">
-        <v>92.0</v>
+        <v>64.0</v>
       </c>
       <c r="C12" t="n">
-        <v>112.0</v>
+        <v>74.0</v>
       </c>
       <c r="D12" t="n">
-        <v>899.0</v>
+        <v>816.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>146.0</v>
+        <v>102.0</v>
       </c>
       <c r="B13" t="n">
-        <v>94.0</v>
+        <v>82.0</v>
       </c>
       <c r="C13" t="n">
-        <v>108.0</v>
+        <v>85.0</v>
       </c>
       <c r="D13" t="n">
-        <v>990.0</v>
+        <v>774.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>126.0</v>
+        <v>104.0</v>
       </c>
       <c r="B14" t="n">
-        <v>95.0</v>
+        <v>79.0</v>
       </c>
       <c r="C14" t="n">
-        <v>108.0</v>
+        <v>82.0</v>
       </c>
       <c r="D14" t="n">
-        <v>842.0</v>
+        <v>746.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>116.0</v>
+        <v>97.0</v>
       </c>
       <c r="B15" t="n">
-        <v>108.0</v>
+        <v>89.0</v>
       </c>
       <c r="C15" t="n">
-        <v>108.0</v>
+        <v>92.0</v>
       </c>
       <c r="D15" t="n">
-        <v>860.0</v>
+        <v>794.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>124.0</v>
+        <v>105.0</v>
       </c>
       <c r="B16" t="n">
-        <v>98.0</v>
+        <v>81.0</v>
       </c>
       <c r="C16" t="n">
-        <v>99.0</v>
+        <v>92.0</v>
       </c>
       <c r="D16" t="n">
-        <v>835.0</v>
+        <v>763.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>106.0</v>
+        <v>113.0</v>
       </c>
       <c r="B17" t="n">
-        <v>86.0</v>
+        <v>63.0</v>
       </c>
       <c r="C17" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D17" t="n">
-        <v>870.0</v>
+        <v>726.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>132.0</v>
+        <v>93.0</v>
       </c>
       <c r="B18" t="n">
-        <v>78.0</v>
+        <v>65.0</v>
       </c>
       <c r="C18" t="n">
-        <v>112.0</v>
+        <v>88.0</v>
       </c>
       <c r="D18" t="n">
-        <v>841.0</v>
+        <v>714.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>114.0</v>
+        <v>92.0</v>
       </c>
       <c r="B19" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="C19" t="n">
         <v>86.0</v>
       </c>
-      <c r="C19" t="n">
-        <v>99.0</v>
-      </c>
       <c r="D19" t="n">
-        <v>853.0</v>
+        <v>711.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>126.0</v>
+        <v>84.0</v>
       </c>
       <c r="B20" t="n">
-        <v>96.0</v>
+        <v>58.0</v>
       </c>
       <c r="C20" t="n">
-        <v>96.0</v>
+        <v>78.0</v>
       </c>
       <c r="D20" t="n">
-        <v>825.0</v>
+        <v>638.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111.0</v>
+        <v>86.0</v>
       </c>
       <c r="B21" t="n">
-        <v>89.0</v>
+        <v>77.0</v>
       </c>
       <c r="C21" t="n">
-        <v>117.0</v>
+        <v>80.0</v>
       </c>
       <c r="D21" t="n">
-        <v>821.0</v>
+        <v>656.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>117.0</v>
+        <v>93.0</v>
       </c>
       <c r="B22" t="n">
-        <v>73.0</v>
+        <v>63.0</v>
       </c>
       <c r="C22" t="n">
-        <v>83.0</v>
+        <v>59.0</v>
       </c>
       <c r="D22" t="n">
-        <v>826.0</v>
+        <v>680.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>124.0</v>
+        <v>111.0</v>
       </c>
       <c r="B23" t="n">
-        <v>92.0</v>
+        <v>66.0</v>
       </c>
       <c r="C23" t="n">
-        <v>104.0</v>
+        <v>86.0</v>
       </c>
       <c r="D23" t="n">
-        <v>776.0</v>
+        <v>744.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>125.0</v>
+        <v>107.0</v>
       </c>
       <c r="B24" t="n">
-        <v>98.0</v>
+        <v>77.0</v>
       </c>
       <c r="C24" t="n">
-        <v>109.0</v>
+        <v>81.0</v>
       </c>
       <c r="D24" t="n">
-        <v>768.0</v>
+        <v>695.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>99.0</v>
+        <v>96.0</v>
       </c>
       <c r="B25" t="n">
-        <v>75.0</v>
+        <v>60.0</v>
       </c>
       <c r="C25" t="n">
-        <v>95.0</v>
+        <v>78.0</v>
       </c>
       <c r="D25" t="n">
-        <v>839.0</v>
+        <v>721.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>110.0</v>
+        <v>99.0</v>
       </c>
       <c r="B26" t="n">
-        <v>76.0</v>
+        <v>69.0</v>
       </c>
       <c r="C26" t="n">
-        <v>116.0</v>
+        <v>90.0</v>
       </c>
       <c r="D26" t="n">
-        <v>803.0</v>
+        <v>712.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>79.0</v>
+        <v>81.0</v>
       </c>
       <c r="B27" t="n">
-        <v>86.0</v>
+        <v>74.0</v>
       </c>
       <c r="C27" t="n">
-        <v>112.0</v>
+        <v>81.0</v>
       </c>
       <c r="D27" t="n">
-        <v>729.0</v>
+        <v>726.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>121.0</v>
+        <v>79.0</v>
       </c>
       <c r="B28" t="n">
-        <v>72.0</v>
+        <v>76.0</v>
       </c>
       <c r="C28" t="n">
-        <v>94.0</v>
+        <v>79.0</v>
       </c>
       <c r="D28" t="n">
-        <v>757.0</v>
+        <v>695.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>93.0</v>
+        <v>103.0</v>
       </c>
       <c r="B29" t="n">
-        <v>88.0</v>
+        <v>54.0</v>
       </c>
       <c r="C29" t="n">
-        <v>83.0</v>
+        <v>94.0</v>
       </c>
       <c r="D29" t="n">
-        <v>759.0</v>
+        <v>689.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>97.0</v>
+        <v>95.0</v>
       </c>
       <c r="B30" t="n">
-        <v>91.0</v>
+        <v>78.0</v>
       </c>
       <c r="C30" t="n">
-        <v>94.0</v>
+        <v>92.0</v>
       </c>
       <c r="D30" t="n">
-        <v>758.0</v>
+        <v>752.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>117.0</v>
+        <v>90.0</v>
       </c>
       <c r="B31" t="n">
-        <v>69.0</v>
+        <v>84.0</v>
       </c>
       <c r="C31" t="n">
-        <v>100.0</v>
+        <v>101.0</v>
       </c>
       <c r="D31" t="n">
-        <v>777.0</v>
+        <v>751.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>119.0</v>
+        <v>98.0</v>
       </c>
       <c r="B32" t="n">
-        <v>70.0</v>
+        <v>62.0</v>
       </c>
       <c r="C32" t="n">
-        <v>99.0</v>
+        <v>85.0</v>
       </c>
       <c r="D32" t="n">
-        <v>750.0</v>
+        <v>698.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>107.0</v>
+        <v>90.0</v>
       </c>
       <c r="B33" t="n">
-        <v>88.0</v>
+        <v>72.0</v>
       </c>
       <c r="C33" t="n">
-        <v>108.0</v>
+        <v>90.0</v>
       </c>
       <c r="D33" t="n">
-        <v>737.0</v>
+        <v>675.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>120.0</v>
+        <v>92.0</v>
       </c>
       <c r="B34" t="n">
-        <v>118.0</v>
+        <v>135.0</v>
       </c>
       <c r="C34" t="n">
-        <v>119.0</v>
+        <v>133.0</v>
       </c>
       <c r="D34" t="n">
-        <v>824.0</v>
+        <v>719.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>137.0</v>
+        <v>106.0</v>
       </c>
       <c r="B35" t="n">
-        <v>160.0</v>
+        <v>192.0</v>
       </c>
       <c r="C35" t="n">
-        <v>199.0</v>
+        <v>193.0</v>
       </c>
       <c r="D35" t="n">
-        <v>802.0</v>
+        <v>717.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>128.0</v>
+        <v>115.0</v>
       </c>
       <c r="B36" t="n">
-        <v>162.0</v>
+        <v>185.0</v>
       </c>
       <c r="C36" t="n">
-        <v>239.0</v>
+        <v>243.0</v>
       </c>
       <c r="D36" t="n">
-        <v>773.0</v>
+        <v>730.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>129.0</v>
+        <v>122.0</v>
       </c>
       <c r="B37" t="n">
-        <v>101.0</v>
+        <v>140.0</v>
       </c>
       <c r="C37" t="n">
-        <v>192.0</v>
+        <v>266.0</v>
       </c>
       <c r="D37" t="n">
-        <v>935.0</v>
+        <v>804.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>174.0</v>
+        <v>123.0</v>
       </c>
       <c r="B38" t="n">
-        <v>204.0</v>
+        <v>212.0</v>
       </c>
       <c r="C38" t="n">
-        <v>220.0</v>
+        <v>288.0</v>
       </c>
       <c r="D38" t="n">
-        <v>919.0</v>
+        <v>899.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>179.0</v>
+        <v>144.0</v>
       </c>
       <c r="B39" t="n">
-        <v>236.0</v>
+        <v>294.0</v>
       </c>
       <c r="C39" t="n">
-        <v>328.0</v>
+        <v>426.0</v>
       </c>
       <c r="D39" t="n">
-        <v>903.0</v>
+        <v>829.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>194.0</v>
+        <v>156.0</v>
       </c>
       <c r="B40" t="n">
-        <v>287.0</v>
+        <v>415.0</v>
       </c>
       <c r="C40" t="n">
-        <v>351.0</v>
+        <v>479.0</v>
       </c>
       <c r="D40" t="n">
-        <v>984.0</v>
+        <v>877.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>196.0</v>
+        <v>195.0</v>
       </c>
       <c r="B41" t="n">
-        <v>330.0</v>
+        <v>454.0</v>
       </c>
       <c r="C41" t="n">
-        <v>414.0</v>
+        <v>578.0</v>
       </c>
       <c r="D41" t="n">
-        <v>1024.0</v>
+        <v>977.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>227.0</v>
+        <v>204.0</v>
       </c>
       <c r="B42" t="n">
-        <v>395.0</v>
+        <v>487.0</v>
       </c>
       <c r="C42" t="n">
-        <v>447.0</v>
+        <v>719.0</v>
       </c>
       <c r="D42" t="n">
-        <v>1128.0</v>
+        <v>997.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>211.0</v>
+        <v>220.0</v>
       </c>
       <c r="B43" t="n">
-        <v>384.0</v>
+        <v>469.0</v>
       </c>
       <c r="C43" t="n">
-        <v>543.0</v>
+        <v>775.0</v>
       </c>
       <c r="D43" t="n">
-        <v>1277.0</v>
+        <v>1201.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="B44" t="n">
-        <v>271.0</v>
+        <v>323.0</v>
       </c>
       <c r="C44" t="n">
-        <v>493.0</v>
+        <v>705.0</v>
       </c>
       <c r="D44" t="n">
-        <v>1371.0</v>
+        <v>1448.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>230.0</v>
+        <v>218.0</v>
       </c>
       <c r="B45" t="n">
-        <v>323.0</v>
+        <v>428.0</v>
       </c>
       <c r="C45" t="n">
-        <v>448.0</v>
+        <v>693.0</v>
       </c>
       <c r="D45" t="n">
-        <v>1419.0</v>
+        <v>1517.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>255.0</v>
+        <v>256.0</v>
       </c>
       <c r="B46" t="n">
-        <v>492.0</v>
+        <v>565.0</v>
       </c>
       <c r="C46" t="n">
-        <v>648.0</v>
+        <v>804.0</v>
       </c>
       <c r="D46" t="n">
-        <v>1457.0</v>
+        <v>1341.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>261.0</v>
+        <v>249.0</v>
       </c>
       <c r="B47" t="n">
-        <v>491.0</v>
+        <v>653.0</v>
       </c>
       <c r="C47" t="n">
-        <v>704.0</v>
+        <v>1009.0</v>
       </c>
       <c r="D47" t="n">
-        <v>1356.0</v>
+        <v>1320.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>290.0</v>
+        <v>292.0</v>
       </c>
       <c r="B48" t="n">
-        <v>606.0</v>
+        <v>744.0</v>
       </c>
       <c r="C48" t="n">
-        <v>733.0</v>
+        <v>1048.0</v>
       </c>
       <c r="D48" t="n">
-        <v>1532.0</v>
+        <v>1358.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>321.0</v>
+        <v>297.0</v>
       </c>
       <c r="B49" t="n">
-        <v>663.0</v>
+        <v>776.0</v>
       </c>
       <c r="C49" t="n">
-        <v>827.0</v>
+        <v>1245.0</v>
       </c>
       <c r="D49" t="n">
-        <v>1554.0</v>
+        <v>1451.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>338.0</v>
+        <v>321.0</v>
       </c>
       <c r="B50" t="n">
-        <v>588.0</v>
+        <v>727.0</v>
       </c>
       <c r="C50" t="n">
-        <v>870.0</v>
+        <v>1243.0</v>
       </c>
       <c r="D50" t="n">
-        <v>1780.0</v>
+        <v>1772.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>310.0</v>
+        <v>305.0</v>
       </c>
       <c r="B51" t="n">
-        <v>403.0</v>
+        <v>569.0</v>
       </c>
       <c r="C51" t="n">
-        <v>753.0</v>
+        <v>1025.0</v>
       </c>
       <c r="D51" t="n">
-        <v>1842.0</v>
+        <v>2162.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>350.0</v>
+        <v>347.0</v>
       </c>
       <c r="B52" t="n">
-        <v>533.0</v>
+        <v>650.0</v>
       </c>
       <c r="C52" t="n">
-        <v>699.0</v>
+        <v>1111.0</v>
       </c>
       <c r="D52" t="n">
-        <v>2108.0</v>
+        <v>2308.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>365.0</v>
+        <v>364.0</v>
       </c>
       <c r="B53" t="n">
-        <v>679.0</v>
+        <v>827.0</v>
       </c>
       <c r="C53" t="n">
-        <v>963.0</v>
+        <v>1382.0</v>
       </c>
       <c r="D53" t="n">
-        <v>1935.0</v>
+        <v>2027.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>357.0</v>
+        <v>369.0</v>
       </c>
       <c r="B54" t="n">
-        <v>679.0</v>
+        <v>911.0</v>
       </c>
       <c r="C54" t="n">
-        <v>997.0</v>
+        <v>1588.0</v>
       </c>
       <c r="D54" t="n">
-        <v>1978.0</v>
+        <v>1882.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>377.0</v>
+        <v>378.0</v>
       </c>
       <c r="B55" t="n">
-        <v>801.0</v>
+        <v>1169.0</v>
       </c>
       <c r="C55" t="n">
-        <v>1049.0</v>
+        <v>1635.0</v>
       </c>
       <c r="D55" t="n">
-        <v>2026.0</v>
+        <v>1943.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>440.0</v>
+        <v>446.0</v>
       </c>
       <c r="B56" t="n">
-        <v>916.0</v>
+        <v>1152.0</v>
       </c>
       <c r="C56" t="n">
-        <v>1162.0</v>
+        <v>1766.0</v>
       </c>
       <c r="D56" t="n">
-        <v>2254.0</v>
+        <v>2115.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>420.0</v>
+        <v>465.0</v>
       </c>
       <c r="B57" t="n">
-        <v>875.0</v>
+        <v>984.0</v>
       </c>
       <c r="C57" t="n">
-        <v>1215.0</v>
+        <v>1761.0</v>
       </c>
       <c r="D57" t="n">
-        <v>2416.0</v>
+        <v>2469.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>412.0</v>
+        <v>484.0</v>
       </c>
       <c r="B58" t="n">
-        <v>563.0</v>
+        <v>728.0</v>
       </c>
       <c r="C58" t="n">
-        <v>1070.0</v>
+        <v>1572.0</v>
       </c>
       <c r="D58" t="n">
-        <v>2554.0</v>
+        <v>3033.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>436.0</v>
+        <v>464.0</v>
       </c>
       <c r="B59" t="n">
-        <v>675.0</v>
+        <v>808.0</v>
       </c>
       <c r="C59" t="n">
-        <v>1043.0</v>
+        <v>1505.0</v>
       </c>
       <c r="D59" t="n">
-        <v>2686.0</v>
+        <v>3243.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>483.0</v>
+        <v>506.0</v>
       </c>
       <c r="B60" t="n">
-        <v>928.0</v>
+        <v>1107.0</v>
       </c>
       <c r="C60" t="n">
-        <v>1247.0</v>
+        <v>1795.0</v>
       </c>
       <c r="D60" t="n">
-        <v>2547.0</v>
+        <v>2826.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>458.0</v>
+        <v>481.0</v>
       </c>
       <c r="B61" t="n">
-        <v>917.0</v>
+        <v>1246.0</v>
       </c>
       <c r="C61" t="n">
-        <v>1305.0</v>
+        <v>2066.0</v>
       </c>
       <c r="D61" t="n">
-        <v>2562.0</v>
+        <v>2586.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>489.0</v>
+        <v>570.0</v>
       </c>
       <c r="B62" t="n">
-        <v>973.0</v>
+        <v>1423.0</v>
       </c>
       <c r="C62" t="n">
-        <v>1300.0</v>
+        <v>2222.0</v>
       </c>
       <c r="D62" t="n">
-        <v>2574.0</v>
+        <v>2546.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>574.0</v>
+        <v>556.0</v>
       </c>
       <c r="B63" t="n">
-        <v>1166.0</v>
+        <v>1420.0</v>
       </c>
       <c r="C63" t="n">
-        <v>1439.0</v>
+        <v>2184.0</v>
       </c>
       <c r="D63" t="n">
-        <v>2803.0</v>
+        <v>2766.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>564.0</v>
+        <v>585.0</v>
       </c>
       <c r="B64" t="n">
-        <v>967.0</v>
+        <v>1237.0</v>
       </c>
       <c r="C64" t="n">
-        <v>1539.0</v>
+        <v>2291.0</v>
       </c>
       <c r="D64" t="n">
-        <v>2982.0</v>
+        <v>3097.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>514.0</v>
+        <v>610.0</v>
       </c>
       <c r="B65" t="n">
-        <v>697.0</v>
+        <v>928.0</v>
       </c>
       <c r="C65" t="n">
-        <v>1281.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D65" t="n">
-        <v>3181.0</v>
+        <v>3895.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>580.0</v>
+        <v>634.0</v>
       </c>
       <c r="B66" t="n">
-        <v>814.0</v>
+        <v>1038.0</v>
       </c>
       <c r="C66" t="n">
-        <v>1287.0</v>
+        <v>1751.0</v>
       </c>
       <c r="D66" t="n">
-        <v>3232.0</v>
+        <v>4180.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>592.0</v>
+        <v>575.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1027.0</v>
+        <v>1294.0</v>
       </c>
       <c r="C67" t="n">
-        <v>1572.0</v>
+        <v>2151.0</v>
       </c>
       <c r="D67" t="n">
-        <v>3170.0</v>
+        <v>3638.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>582.0</v>
+        <v>657.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1008.0</v>
+        <v>1447.0</v>
       </c>
       <c r="C68" t="n">
-        <v>1587.0</v>
+        <v>2463.0</v>
       </c>
       <c r="D68" t="n">
-        <v>3030.0</v>
+        <v>3051.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>551.0</v>
+        <v>632.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1101.0</v>
+        <v>1533.0</v>
       </c>
       <c r="C69" t="n">
-        <v>1631.0</v>
+        <v>2534.0</v>
       </c>
       <c r="D69" t="n">
-        <v>3141.0</v>
+        <v>3051.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>673.0</v>
+        <v>690.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1298.0</v>
+        <v>1630.0</v>
       </c>
       <c r="C70" t="n">
-        <v>1740.0</v>
+        <v>2634.0</v>
       </c>
       <c r="D70" t="n">
-        <v>3162.0</v>
+        <v>3229.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>633.0</v>
+        <v>644.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1160.0</v>
+        <v>1470.0</v>
       </c>
       <c r="C71" t="n">
-        <v>1779.0</v>
+        <v>2487.0</v>
       </c>
       <c r="D71" t="n">
-        <v>3410.0</v>
+        <v>3636.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>589.0</v>
+        <v>689.0</v>
       </c>
       <c r="B72" t="n">
-        <v>856.0</v>
+        <v>1020.0</v>
       </c>
       <c r="C72" t="n">
-        <v>1482.0</v>
+        <v>2190.0</v>
       </c>
       <c r="D72" t="n">
-        <v>3443.0</v>
+        <v>4524.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>591.0</v>
+        <v>752.0</v>
       </c>
       <c r="B73" t="n">
-        <v>915.0</v>
+        <v>1231.0</v>
       </c>
       <c r="C73" t="n">
-        <v>1364.0</v>
+        <v>1994.0</v>
       </c>
       <c r="D73" t="n">
-        <v>3708.0</v>
+        <v>4893.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>689.0</v>
+        <v>635.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1187.0</v>
+        <v>1472.0</v>
       </c>
       <c r="C74" t="n">
-        <v>1689.0</v>
+        <v>2349.0</v>
       </c>
       <c r="D74" t="n">
-        <v>3672.0</v>
+        <v>4048.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>639.0</v>
+        <v>699.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1164.0</v>
+        <v>1636.0</v>
       </c>
       <c r="C75" t="n">
-        <v>1715.0</v>
+        <v>2519.0</v>
       </c>
       <c r="D75" t="n">
-        <v>3356.0</v>
+        <v>3632.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>628.0</v>
+        <v>722.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1170.0</v>
+        <v>1810.0</v>
       </c>
       <c r="C76" t="n">
-        <v>1695.0</v>
+        <v>2600.0</v>
       </c>
       <c r="D76" t="n">
-        <v>3436.0</v>
+        <v>3515.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>726.0</v>
+        <v>739.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1338.0</v>
+        <v>1785.0</v>
       </c>
       <c r="C77" t="n">
-        <v>1888.0</v>
+        <v>2787.0</v>
       </c>
       <c r="D77" t="n">
-        <v>3553.0</v>
+        <v>3646.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>691.0</v>
+        <v>713.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1262.0</v>
+        <v>1619.0</v>
       </c>
       <c r="C78" t="n">
-        <v>1889.0</v>
+        <v>2609.0</v>
       </c>
       <c r="D78" t="n">
-        <v>3729.0</v>
+        <v>4050.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>648.0</v>
+        <v>774.0</v>
       </c>
       <c r="B79" t="n">
-        <v>938.0</v>
+        <v>1057.0</v>
       </c>
       <c r="C79" t="n">
-        <v>1622.0</v>
+        <v>2181.0</v>
       </c>
       <c r="D79" t="n">
-        <v>4001.0</v>
+        <v>5076.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>680.0</v>
+        <v>761.0</v>
       </c>
       <c r="B80" t="n">
-        <v>992.0</v>
+        <v>1232.0</v>
       </c>
       <c r="C80" t="n">
-        <v>1407.0</v>
+        <v>1974.0</v>
       </c>
       <c r="D80" t="n">
-        <v>4081.0</v>
+        <v>5194.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>727.0</v>
+        <v>760.0</v>
       </c>
       <c r="B81" t="n">
-        <v>1240.0</v>
+        <v>1481.0</v>
       </c>
       <c r="C81" t="n">
-        <v>1724.0</v>
+        <v>2322.0</v>
       </c>
       <c r="D81" t="n">
-        <v>3859.0</v>
+        <v>4419.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>692.0</v>
+        <v>694.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1214.0</v>
+        <v>1732.0</v>
       </c>
       <c r="C82" t="n">
-        <v>1850.0</v>
+        <v>2538.0</v>
       </c>
       <c r="D82" t="n">
-        <v>3791.0</v>
+        <v>3857.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>715.0</v>
+        <v>690.0</v>
       </c>
       <c r="B83" t="n">
-        <v>1271.0</v>
+        <v>1698.0</v>
       </c>
       <c r="C83" t="n">
-        <v>1767.0</v>
+        <v>2663.0</v>
       </c>
       <c r="D83" t="n">
-        <v>3689.0</v>
+        <v>3637.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>795.0</v>
+        <v>719.0</v>
       </c>
       <c r="B84" t="n">
-        <v>1400.0</v>
+        <v>1867.0</v>
       </c>
       <c r="C84" t="n">
-        <v>1805.0</v>
+        <v>2595.0</v>
       </c>
       <c r="D84" t="n">
-        <v>3810.0</v>
+        <v>3828.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>773.0</v>
+        <v>768.0</v>
       </c>
       <c r="B85" t="n">
-        <v>1400.0</v>
+        <v>1550.0</v>
       </c>
       <c r="C85" t="n">
-        <v>1803.0</v>
+        <v>2509.0</v>
       </c>
       <c r="D85" t="n">
-        <v>3909.0</v>
+        <v>4219.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>686.0</v>
+        <v>697.0</v>
       </c>
       <c r="B86" t="n">
-        <v>1016.0</v>
+        <v>1067.0</v>
       </c>
       <c r="C86" t="n">
-        <v>1542.0</v>
+        <v>2160.0</v>
       </c>
       <c r="D86" t="n">
-        <v>4013.0</v>
+        <v>4963.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>652.0</v>
+        <v>731.0</v>
       </c>
       <c r="B87" t="n">
-        <v>1041.0</v>
+        <v>1174.0</v>
       </c>
       <c r="C87" t="n">
-        <v>1358.0</v>
+        <v>1852.0</v>
       </c>
       <c r="D87" t="n">
-        <v>4038.0</v>
+        <v>5322.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>745.0</v>
+        <v>741.0</v>
       </c>
       <c r="B88" t="n">
-        <v>1286.0</v>
+        <v>1409.0</v>
       </c>
       <c r="C88" t="n">
-        <v>1643.0</v>
+        <v>2203.0</v>
       </c>
       <c r="D88" t="n">
-        <v>3968.0</v>
+        <v>4466.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>673.0</v>
+        <v>757.0</v>
       </c>
       <c r="B89" t="n">
-        <v>1221.0</v>
+        <v>1561.0</v>
       </c>
       <c r="C89" t="n">
-        <v>1697.0</v>
+        <v>2346.0</v>
       </c>
       <c r="D89" t="n">
-        <v>3727.0</v>
+        <v>3896.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>704.0</v>
+        <v>729.0</v>
       </c>
       <c r="B90" t="n">
-        <v>1254.0</v>
+        <v>1704.0</v>
       </c>
       <c r="C90" t="n">
-        <v>1650.0</v>
+        <v>2351.0</v>
       </c>
       <c r="D90" t="n">
-        <v>3775.0</v>
+        <v>3784.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>725.0</v>
+        <v>718.0</v>
       </c>
       <c r="B91" t="n">
-        <v>1422.0</v>
+        <v>1634.0</v>
       </c>
       <c r="C91" t="n">
-        <v>1679.0</v>
+        <v>2460.0</v>
       </c>
       <c r="D91" t="n">
-        <v>3832.0</v>
+        <v>3819.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>719.0</v>
+        <v>732.0</v>
       </c>
       <c r="B92" t="n">
-        <v>1291.0</v>
+        <v>1463.0</v>
       </c>
       <c r="C92" t="n">
-        <v>1795.0</v>
+        <v>2302.0</v>
       </c>
       <c r="D92" t="n">
-        <v>3842.0</v>
+        <v>4146.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>677.0</v>
+        <v>708.0</v>
       </c>
       <c r="B93" t="n">
-        <v>1018.0</v>
+        <v>1098.0</v>
       </c>
       <c r="C93" t="n">
-        <v>1554.0</v>
+        <v>1966.0</v>
       </c>
       <c r="D93" t="n">
-        <v>3908.0</v>
+        <v>4821.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>687.0</v>
+        <v>774.0</v>
       </c>
       <c r="B94" t="n">
-        <v>1018.0</v>
+        <v>1075.0</v>
       </c>
       <c r="C94" t="n">
-        <v>1449.0</v>
+        <v>1743.0</v>
       </c>
       <c r="D94" t="n">
-        <v>3962.0</v>
+        <v>5145.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>701.0</v>
+        <v>697.0</v>
       </c>
       <c r="B95" t="n">
-        <v>1245.0</v>
+        <v>1406.0</v>
       </c>
       <c r="C95" t="n">
-        <v>1641.0</v>
+        <v>2033.0</v>
       </c>
       <c r="D95" t="n">
-        <v>3914.0</v>
+        <v>4324.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>640.0</v>
+        <v>707.0</v>
       </c>
       <c r="B96" t="n">
-        <v>1138.0</v>
+        <v>1487.0</v>
       </c>
       <c r="C96" t="n">
-        <v>1657.0</v>
+        <v>2139.0</v>
       </c>
       <c r="D96" t="n">
-        <v>3693.0</v>
+        <v>3790.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>657.0</v>
+        <v>729.0</v>
       </c>
       <c r="B97" t="n">
-        <v>1228.0</v>
+        <v>1567.0</v>
       </c>
       <c r="C97" t="n">
-        <v>1636.0</v>
+        <v>2227.0</v>
       </c>
       <c r="D97" t="n">
-        <v>3665.0</v>
+        <v>3572.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>714.0</v>
+        <v>674.0</v>
       </c>
       <c r="B98" t="n">
-        <v>1331.0</v>
+        <v>1653.0</v>
       </c>
       <c r="C98" t="n">
-        <v>1718.0</v>
+        <v>2183.0</v>
       </c>
       <c r="D98" t="n">
-        <v>3834.0</v>
+        <v>3668.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>756.0</v>
+        <v>757.0</v>
       </c>
       <c r="B99" t="n">
-        <v>1305.0</v>
+        <v>1412.0</v>
       </c>
       <c r="C99" t="n">
-        <v>1620.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D99" t="n">
-        <v>3819.0</v>
+        <v>4116.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>706.0</v>
+        <v>784.0</v>
       </c>
       <c r="B100" t="n">
-        <v>1097.0</v>
+        <v>1036.0</v>
       </c>
       <c r="C100" t="n">
-        <v>1209.0</v>
+        <v>1341.0</v>
       </c>
       <c r="D100" t="n">
-        <v>3860.0</v>
+        <v>4833.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>650.0</v>
+        <v>724.0</v>
       </c>
       <c r="B101" t="n">
-        <v>1095.0</v>
+        <v>1147.0</v>
       </c>
       <c r="C101" t="n">
-        <v>965.0</v>
+        <v>779.0</v>
       </c>
       <c r="D101" t="n">
-        <v>3705.0</v>
+        <v>4677.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>674.0</v>
+        <v>754.0</v>
       </c>
       <c r="B102" t="n">
-        <v>1161.0</v>
+        <v>1333.0</v>
       </c>
       <c r="C102" t="n">
-        <v>808.0</v>
+        <v>616.0</v>
       </c>
       <c r="D102" t="n">
-        <v>3495.0</v>
+        <v>3804.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>660.0</v>
+        <v>684.0</v>
       </c>
       <c r="B103" t="n">
-        <v>1109.0</v>
+        <v>1437.0</v>
       </c>
       <c r="C103" t="n">
-        <v>601.0</v>
+        <v>434.0</v>
       </c>
       <c r="D103" t="n">
-        <v>3288.0</v>
+        <v>3147.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>572.0</v>
+        <v>684.0</v>
       </c>
       <c r="B104" t="n">
-        <v>1109.0</v>
+        <v>1489.0</v>
       </c>
       <c r="C104" t="n">
-        <v>418.0</v>
+        <v>310.0</v>
       </c>
       <c r="D104" t="n">
-        <v>2999.0</v>
+        <v>2754.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>652.0</v>
+        <v>700.0</v>
       </c>
       <c r="B105" t="n">
-        <v>1365.0</v>
+        <v>1511.0</v>
       </c>
       <c r="C105" t="n">
-        <v>324.0</v>
+        <v>237.0</v>
       </c>
       <c r="D105" t="n">
-        <v>2900.0</v>
+        <v>2735.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>668.0</v>
+        <v>655.0</v>
       </c>
       <c r="B106" t="n">
-        <v>1211.0</v>
+        <v>1324.0</v>
       </c>
       <c r="C106" t="n">
-        <v>407.0</v>
+        <v>325.0</v>
       </c>
       <c r="D106" t="n">
-        <v>2815.0</v>
+        <v>2791.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>565.0</v>
+        <v>580.0</v>
       </c>
       <c r="B107" t="n">
-        <v>918.0</v>
+        <v>942.0</v>
       </c>
       <c r="C107" t="n">
-        <v>437.0</v>
+        <v>458.0</v>
       </c>
       <c r="D107" t="n">
-        <v>2681.0</v>
+        <v>3147.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>512.0</v>
+        <v>551.0</v>
       </c>
       <c r="B108" t="n">
-        <v>969.0</v>
+        <v>913.0</v>
       </c>
       <c r="C108" t="n">
-        <v>528.0</v>
+        <v>539.0</v>
       </c>
       <c r="D108" t="n">
-        <v>2695.0</v>
+        <v>3121.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>540.0</v>
+        <v>555.0</v>
       </c>
       <c r="B109" t="n">
-        <v>1047.0</v>
+        <v>1126.0</v>
       </c>
       <c r="C109" t="n">
-        <v>595.0</v>
+        <v>776.0</v>
       </c>
       <c r="D109" t="n">
-        <v>2572.0</v>
+        <v>2620.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>522.0</v>
+        <v>496.0</v>
       </c>
       <c r="B110" t="n">
-        <v>979.0</v>
+        <v>1104.0</v>
       </c>
       <c r="C110" t="n">
-        <v>699.0</v>
+        <v>825.0</v>
       </c>
       <c r="D110" t="n">
-        <v>2472.0</v>
+        <v>2454.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>486.0</v>
+        <v>517.0</v>
       </c>
       <c r="B111" t="n">
-        <v>963.0</v>
+        <v>1182.0</v>
       </c>
       <c r="C111" t="n">
-        <v>805.0</v>
+        <v>1066.0</v>
       </c>
       <c r="D111" t="n">
-        <v>2543.0</v>
+        <v>2255.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>597.0</v>
+        <v>518.0</v>
       </c>
       <c r="B112" t="n">
-        <v>1161.0</v>
+        <v>1243.0</v>
       </c>
       <c r="C112" t="n">
-        <v>992.0</v>
+        <v>1285.0</v>
       </c>
       <c r="D112" t="n">
-        <v>2686.0</v>
+        <v>2316.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>579.0</v>
+        <v>517.0</v>
       </c>
       <c r="B113" t="n">
-        <v>1163.0</v>
+        <v>1104.0</v>
       </c>
       <c r="C113" t="n">
-        <v>992.0</v>
+        <v>1222.0</v>
       </c>
       <c r="D113" t="n">
-        <v>2749.0</v>
+        <v>2496.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>565.0</v>
+        <v>521.0</v>
       </c>
       <c r="B114" t="n">
-        <v>945.0</v>
+        <v>864.0</v>
       </c>
       <c r="C114" t="n">
-        <v>917.0</v>
+        <v>1224.0</v>
       </c>
       <c r="D114" t="n">
-        <v>2745.0</v>
+        <v>2886.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>528.0</v>
+        <v>506.0</v>
       </c>
       <c r="B115" t="n">
-        <v>978.0</v>
+        <v>855.0</v>
       </c>
       <c r="C115" t="n">
-        <v>1009.0</v>
+        <v>1117.0</v>
       </c>
       <c r="D115" t="n">
-        <v>2782.0</v>
+        <v>3029.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>545.0</v>
+        <v>496.0</v>
       </c>
       <c r="B116" t="n">
-        <v>966.0</v>
+        <v>979.0</v>
       </c>
       <c r="C116" t="n">
-        <v>1211.0</v>
+        <v>1327.0</v>
       </c>
       <c r="D116" t="n">
-        <v>2824.0</v>
+        <v>2623.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>559.0</v>
+        <v>508.0</v>
       </c>
       <c r="B117" t="n">
-        <v>953.0</v>
+        <v>1037.0</v>
       </c>
       <c r="C117" t="n">
-        <v>1233.0</v>
+        <v>1513.0</v>
       </c>
       <c r="D117" t="n">
-        <v>2866.0</v>
+        <v>2465.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>538.0</v>
+        <v>494.0</v>
       </c>
       <c r="B118" t="n">
-        <v>1001.0</v>
+        <v>1166.0</v>
       </c>
       <c r="C118" t="n">
-        <v>1281.0</v>
+        <v>1547.0</v>
       </c>
       <c r="D118" t="n">
-        <v>2860.0</v>
+        <v>2432.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>631.0</v>
+        <v>565.0</v>
       </c>
       <c r="B119" t="n">
-        <v>1178.0</v>
+        <v>1187.0</v>
       </c>
       <c r="C119" t="n">
-        <v>1455.0</v>
+        <v>1758.0</v>
       </c>
       <c r="D119" t="n">
-        <v>3094.0</v>
+        <v>2491.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>623.0</v>
+        <v>538.0</v>
       </c>
       <c r="B120" t="n">
-        <v>1202.0</v>
+        <v>1187.0</v>
       </c>
       <c r="C120" t="n">
-        <v>1443.0</v>
+        <v>1739.0</v>
       </c>
       <c r="D120" t="n">
-        <v>3229.0</v>
+        <v>2560.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>604.0</v>
+        <v>510.0</v>
       </c>
       <c r="B121" t="n">
-        <v>1062.0</v>
+        <v>834.0</v>
       </c>
       <c r="C121" t="n">
-        <v>1451.0</v>
+        <v>1585.0</v>
       </c>
       <c r="D121" t="n">
-        <v>3354.0</v>
+        <v>3050.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>608.0</v>
+        <v>555.0</v>
       </c>
       <c r="B122" t="n">
-        <v>998.0</v>
+        <v>885.0</v>
       </c>
       <c r="C122" t="n">
-        <v>1461.0</v>
+        <v>1455.0</v>
       </c>
       <c r="D122" t="n">
-        <v>3344.0</v>
+        <v>3229.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>615.0</v>
+        <v>555.0</v>
       </c>
       <c r="B123" t="n">
-        <v>1105.0</v>
+        <v>1033.0</v>
       </c>
       <c r="C123" t="n">
-        <v>1657.0</v>
+        <v>1735.0</v>
       </c>
       <c r="D123" t="n">
-        <v>3275.0</v>
+        <v>2922.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>618.0</v>
+        <v>524.0</v>
       </c>
       <c r="B124" t="n">
-        <v>1081.0</v>
+        <v>1074.0</v>
       </c>
       <c r="C124" t="n">
-        <v>1735.0</v>
+        <v>1846.0</v>
       </c>
       <c r="D124" t="n">
-        <v>3347.0</v>
+        <v>2662.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>668.0</v>
+        <v>553.0</v>
       </c>
       <c r="B125" t="n">
-        <v>1285.0</v>
+        <v>1157.0</v>
       </c>
       <c r="C125" t="n">
-        <v>1817.0</v>
+        <v>1887.0</v>
       </c>
       <c r="D125" t="n">
-        <v>3706.0</v>
+        <v>2581.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>726.0</v>
+        <v>546.0</v>
       </c>
       <c r="B126" t="n">
-        <v>1359.0</v>
+        <v>1228.0</v>
       </c>
       <c r="C126" t="n">
-        <v>2065.0</v>
+        <v>1962.0</v>
       </c>
       <c r="D126" t="n">
-        <v>3986.0</v>
+        <v>2639.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>700.0</v>
+        <v>575.0</v>
       </c>
       <c r="B127" t="n">
-        <v>1379.0</v>
+        <v>1153.0</v>
       </c>
       <c r="C127" t="n">
-        <v>2079.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D127" t="n">
-        <v>4236.0</v>
+        <v>2802.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>689.0</v>
+        <v>612.0</v>
       </c>
       <c r="B128" t="n">
-        <v>1233.0</v>
+        <v>997.0</v>
       </c>
       <c r="C128" t="n">
-        <v>1898.0</v>
+        <v>1880.0</v>
       </c>
       <c r="D128" t="n">
-        <v>4162.0</v>
+        <v>3342.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>711.0</v>
+        <v>564.0</v>
       </c>
       <c r="B129" t="n">
-        <v>1201.0</v>
+        <v>926.0</v>
       </c>
       <c r="C129" t="n">
-        <v>1985.0</v>
+        <v>1761.0</v>
       </c>
       <c r="D129" t="n">
-        <v>4090.0</v>
+        <v>3679.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>733.0</v>
+        <v>587.0</v>
       </c>
       <c r="B130" t="n">
-        <v>1330.0</v>
+        <v>1072.0</v>
       </c>
       <c r="C130" t="n">
-        <v>2108.0</v>
+        <v>1873.0</v>
       </c>
       <c r="D130" t="n">
-        <v>4164.0</v>
+        <v>3360.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>700.0</v>
+        <v>607.0</v>
       </c>
       <c r="B131" t="n">
-        <v>1378.0</v>
+        <v>1205.0</v>
       </c>
       <c r="C131" t="n">
-        <v>2217.0</v>
+        <v>2052.0</v>
       </c>
       <c r="D131" t="n">
-        <v>4354.0</v>
+        <v>3157.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>789.0</v>
+        <v>571.0</v>
       </c>
       <c r="B132" t="n">
-        <v>1602.0</v>
+        <v>1363.0</v>
       </c>
       <c r="C132" t="n">
-        <v>2354.0</v>
+        <v>2127.0</v>
       </c>
       <c r="D132" t="n">
-        <v>4529.0</v>
+        <v>2921.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>877.0</v>
+        <v>641.0</v>
       </c>
       <c r="B133" t="n">
-        <v>1626.0</v>
+        <v>1420.0</v>
       </c>
       <c r="C133" t="n">
-        <v>2524.0</v>
+        <v>2379.0</v>
       </c>
       <c r="D133" t="n">
-        <v>4762.0</v>
+        <v>3070.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>885.0</v>
+        <v>609.0</v>
       </c>
       <c r="B134" t="n">
-        <v>1503.0</v>
+        <v>1381.0</v>
       </c>
       <c r="C134" t="n">
-        <v>2580.0</v>
+        <v>2358.0</v>
       </c>
       <c r="D134" t="n">
-        <v>5084.0</v>
+        <v>3219.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>813.0</v>
+        <v>693.0</v>
       </c>
       <c r="B135" t="n">
-        <v>1451.0</v>
+        <v>1213.0</v>
       </c>
       <c r="C135" t="n">
-        <v>2310.0</v>
+        <v>2162.0</v>
       </c>
       <c r="D135" t="n">
-        <v>5215.0</v>
+        <v>3587.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>846.0</v>
+        <v>659.0</v>
       </c>
       <c r="B136" t="n">
-        <v>1556.0</v>
+        <v>1149.0</v>
       </c>
       <c r="C136" t="n">
-        <v>2455.0</v>
+        <v>1908.0</v>
       </c>
       <c r="D136" t="n">
-        <v>5259.0</v>
+        <v>3943.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>850.0</v>
+        <v>701.0</v>
       </c>
       <c r="B137" t="n">
-        <v>1517.0</v>
+        <v>1298.0</v>
       </c>
       <c r="C137" t="n">
-        <v>2601.0</v>
+        <v>2140.0</v>
       </c>
       <c r="D137" t="n">
-        <v>5067.0</v>
+        <v>3723.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>887.0</v>
+        <v>690.0</v>
       </c>
       <c r="B138" t="n">
-        <v>1599.0</v>
+        <v>1488.0</v>
       </c>
       <c r="C138" t="n">
-        <v>2569.0</v>
+        <v>2215.0</v>
       </c>
       <c r="D138" t="n">
-        <v>5281.0</v>
+        <v>3508.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>914.0</v>
+        <v>743.0</v>
       </c>
       <c r="B139" t="n">
-        <v>1866.0</v>
+        <v>1579.0</v>
       </c>
       <c r="C139" t="n">
-        <v>2715.0</v>
+        <v>2395.0</v>
       </c>
       <c r="D139" t="n">
-        <v>5656.0</v>
+        <v>3432.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1048.0</v>
+        <v>716.0</v>
       </c>
       <c r="B140" t="n">
-        <v>1954.0</v>
+        <v>1696.0</v>
       </c>
       <c r="C140" t="n">
-        <v>3028.0</v>
+        <v>2595.0</v>
       </c>
       <c r="D140" t="n">
-        <v>5911.0</v>
+        <v>3394.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1041.0</v>
+        <v>809.0</v>
       </c>
       <c r="B141" t="n">
-        <v>1779.0</v>
+        <v>1568.0</v>
       </c>
       <c r="C141" t="n">
-        <v>3001.0</v>
+        <v>2610.0</v>
       </c>
       <c r="D141" t="n">
-        <v>6199.0</v>
+        <v>3691.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1009.0</v>
+        <v>789.0</v>
       </c>
       <c r="B142" t="n">
-        <v>1630.0</v>
+        <v>1248.0</v>
       </c>
       <c r="C142" t="n">
-        <v>2607.0</v>
+        <v>2389.0</v>
       </c>
       <c r="D142" t="n">
-        <v>6260.0</v>
+        <v>4186.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1013.0</v>
+        <v>772.0</v>
       </c>
       <c r="B143" t="n">
-        <v>1725.0</v>
+        <v>1307.0</v>
       </c>
       <c r="C143" t="n">
-        <v>2802.0</v>
+        <v>2163.0</v>
       </c>
       <c r="D143" t="n">
-        <v>6059.0</v>
+        <v>4392.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1012.0</v>
+        <v>771.0</v>
       </c>
       <c r="B144" t="n">
-        <v>1673.0</v>
+        <v>1522.0</v>
       </c>
       <c r="C144" t="n">
-        <v>2834.0</v>
+        <v>2422.0</v>
       </c>
       <c r="D144" t="n">
-        <v>5891.0</v>
+        <v>4184.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1037.0</v>
+        <v>796.0</v>
       </c>
       <c r="B145" t="n">
-        <v>1830.0</v>
+        <v>1609.0</v>
       </c>
       <c r="C145" t="n">
-        <v>2811.0</v>
+        <v>2501.0</v>
       </c>
       <c r="D145" t="n">
-        <v>6209.0</v>
+        <v>3898.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1178.0</v>
+        <v>810.0</v>
       </c>
       <c r="B146" t="n">
-        <v>2128.0</v>
+        <v>1768.0</v>
       </c>
       <c r="C146" t="n">
-        <v>2969.0</v>
+        <v>2590.0</v>
       </c>
       <c r="D146" t="n">
-        <v>6402.0</v>
+        <v>3941.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1259.0</v>
+        <v>858.0</v>
       </c>
       <c r="B147" t="n">
-        <v>2194.0</v>
+        <v>1833.0</v>
       </c>
       <c r="C147" t="n">
-        <v>3210.0</v>
+        <v>2738.0</v>
       </c>
       <c r="D147" t="n">
-        <v>6725.0</v>
+        <v>3825.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1207.0</v>
+        <v>847.0</v>
       </c>
       <c r="B148" t="n">
-        <v>1915.0</v>
+        <v>1740.0</v>
       </c>
       <c r="C148" t="n">
-        <v>2983.0</v>
+        <v>2825.0</v>
       </c>
       <c r="D148" t="n">
-        <v>7075.0</v>
+        <v>3957.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1109.0</v>
+        <v>834.0</v>
       </c>
       <c r="B149" t="n">
-        <v>1759.0</v>
+        <v>1455.0</v>
       </c>
       <c r="C149" t="n">
-        <v>2811.0</v>
+        <v>2485.0</v>
       </c>
       <c r="D149" t="n">
-        <v>7031.0</v>
+        <v>4623.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1090.0</v>
+        <v>826.0</v>
       </c>
       <c r="B150" t="n">
-        <v>1828.0</v>
+        <v>1543.0</v>
       </c>
       <c r="C150" t="n">
-        <v>2967.0</v>
+        <v>2425.0</v>
       </c>
       <c r="D150" t="n">
-        <v>6568.0</v>
+        <v>4969.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1115.0</v>
+        <v>866.0</v>
       </c>
       <c r="B151" t="n">
-        <v>1758.0</v>
+        <v>1562.0</v>
       </c>
       <c r="C151" t="n">
-        <v>2588.0</v>
+        <v>2356.0</v>
       </c>
       <c r="D151" t="n">
-        <v>6509.0</v>
+        <v>4556.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1149.0</v>
+        <v>886.0</v>
       </c>
       <c r="B152" t="n">
-        <v>1885.0</v>
+        <v>1761.0</v>
       </c>
       <c r="C152" t="n">
-        <v>2130.0</v>
+        <v>2184.0</v>
       </c>
       <c r="D152" t="n">
-        <v>6358.0</v>
+        <v>4275.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1224.0</v>
+        <v>898.0</v>
       </c>
       <c r="B153" t="n">
-        <v>2187.0</v>
+        <v>1851.0</v>
       </c>
       <c r="C153" t="n">
-        <v>1766.0</v>
+        <v>1700.0</v>
       </c>
       <c r="D153" t="n">
-        <v>6288.0</v>
+        <v>4073.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1237.0</v>
+        <v>921.0</v>
       </c>
       <c r="B154" t="n">
-        <v>2131.0</v>
+        <v>2005.0</v>
       </c>
       <c r="C154" t="n">
-        <v>1622.0</v>
+        <v>1353.0</v>
       </c>
       <c r="D154" t="n">
-        <v>6133.0</v>
+        <v>3911.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1097.0</v>
+        <v>908.0</v>
       </c>
       <c r="B155" t="n">
-        <v>1847.0</v>
+        <v>1894.0</v>
       </c>
       <c r="C155" t="n">
-        <v>1209.0</v>
+        <v>1011.0</v>
       </c>
       <c r="D155" t="n">
-        <v>5807.0</v>
+        <v>4004.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>987.0</v>
+        <v>868.0</v>
       </c>
       <c r="B156" t="n">
-        <v>1584.0</v>
+        <v>1561.0</v>
       </c>
       <c r="C156" t="n">
-        <v>869.0</v>
+        <v>815.0</v>
       </c>
       <c r="D156" t="n">
-        <v>5398.0</v>
+        <v>4359.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>853.0</v>
+        <v>804.0</v>
       </c>
       <c r="B157" t="n">
-        <v>1219.0</v>
+        <v>1177.0</v>
       </c>
       <c r="C157" t="n">
-        <v>593.0</v>
+        <v>591.0</v>
       </c>
       <c r="D157" t="n">
-        <v>4873.0</v>
+        <v>4471.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>670.0</v>
+        <v>709.0</v>
       </c>
       <c r="B158" t="n">
-        <v>938.0</v>
+        <v>973.0</v>
       </c>
       <c r="C158" t="n">
-        <v>531.0</v>
+        <v>499.0</v>
       </c>
       <c r="D158" t="n">
-        <v>4353.0</v>
+        <v>4447.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>580.0</v>
+        <v>638.0</v>
       </c>
       <c r="B159" t="n">
-        <v>819.0</v>
+        <v>940.0</v>
       </c>
       <c r="C159" t="n">
-        <v>657.0</v>
+        <v>625.0</v>
       </c>
       <c r="D159" t="n">
-        <v>4039.0</v>
+        <v>4154.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>613.0</v>
+        <v>590.0</v>
       </c>
       <c r="B160" t="n">
-        <v>775.0</v>
+        <v>950.0</v>
       </c>
       <c r="C160" t="n">
-        <v>674.0</v>
+        <v>825.0</v>
       </c>
       <c r="D160" t="n">
-        <v>3639.0</v>
+        <v>3758.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>577.0</v>
+        <v>611.0</v>
       </c>
       <c r="B161" t="n">
-        <v>927.0</v>
+        <v>1131.0</v>
       </c>
       <c r="C161" t="n">
-        <v>647.0</v>
+        <v>839.0</v>
       </c>
       <c r="D161" t="n">
-        <v>3550.0</v>
+        <v>3435.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>648.0</v>
+        <v>619.0</v>
       </c>
       <c r="B162" t="n">
-        <v>974.0</v>
+        <v>1215.0</v>
       </c>
       <c r="C162" t="n">
-        <v>716.0</v>
+        <v>759.0</v>
       </c>
       <c r="D162" t="n">
-        <v>3375.0</v>
+        <v>3268.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>644.0</v>
+        <v>630.0</v>
       </c>
       <c r="B163" t="n">
-        <v>1117.0</v>
+        <v>1191.0</v>
       </c>
       <c r="C163" t="n">
-        <v>712.0</v>
+        <v>641.0</v>
       </c>
       <c r="D163" t="n">
-        <v>3143.0</v>
+        <v>3069.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>584.0</v>
+        <v>611.0</v>
       </c>
       <c r="B164" t="n">
-        <v>1033.0</v>
+        <v>1301.0</v>
       </c>
       <c r="C164" t="n">
-        <v>619.0</v>
+        <v>674.0</v>
       </c>
       <c r="D164" t="n">
-        <v>2625.0</v>
+        <v>2781.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>502.0</v>
+        <v>637.0</v>
       </c>
       <c r="B165" t="n">
-        <v>942.0</v>
+        <v>1508.0</v>
       </c>
       <c r="C165" t="n">
-        <v>519.0</v>
+        <v>707.0</v>
       </c>
       <c r="D165" t="n">
-        <v>2519.0</v>
+        <v>2575.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>525.0</v>
+        <v>660.0</v>
       </c>
       <c r="B166" t="n">
-        <v>977.0</v>
+        <v>1527.0</v>
       </c>
       <c r="C166" t="n">
-        <v>540.0</v>
+        <v>911.0</v>
       </c>
       <c r="D166" t="n">
-        <v>2732.0</v>
+        <v>2481.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>601.0</v>
+        <v>633.0</v>
       </c>
       <c r="B167" t="n">
-        <v>1232.0</v>
+        <v>1703.0</v>
       </c>
       <c r="C167" t="n">
-        <v>704.0</v>
+        <v>1088.0</v>
       </c>
       <c r="D167" t="n">
-        <v>2757.0</v>
+        <v>2543.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>620.0</v>
+        <v>687.0</v>
       </c>
       <c r="B168" t="n">
-        <v>1359.0</v>
+        <v>1769.0</v>
       </c>
       <c r="C168" t="n">
-        <v>1053.0</v>
+        <v>1446.0</v>
       </c>
       <c r="D168" t="n">
-        <v>2970.0</v>
+        <v>2590.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>648.0</v>
+        <v>752.0</v>
       </c>
       <c r="B169" t="n">
-        <v>1307.0</v>
+        <v>1750.0</v>
       </c>
       <c r="C169" t="n">
-        <v>1088.0</v>
+        <v>1618.0</v>
       </c>
       <c r="D169" t="n">
-        <v>3005.0</v>
+        <v>3081.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>695.0</v>
+        <v>694.0</v>
       </c>
       <c r="B170" t="n">
-        <v>1134.0</v>
+        <v>1514.0</v>
       </c>
       <c r="C170" t="n">
-        <v>1162.0</v>
+        <v>1600.0</v>
       </c>
       <c r="D170" t="n">
-        <v>3150.0</v>
+        <v>3578.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>629.0</v>
+        <v>689.0</v>
       </c>
       <c r="B171" t="n">
-        <v>1069.0</v>
+        <v>1495.0</v>
       </c>
       <c r="C171" t="n">
-        <v>1264.0</v>
+        <v>1887.0</v>
       </c>
       <c r="D171" t="n">
-        <v>3149.0</v>
+        <v>3557.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>609.0</v>
+        <v>662.0</v>
       </c>
       <c r="B172" t="n">
-        <v>956.0</v>
+        <v>1567.0</v>
       </c>
       <c r="C172" t="n">
-        <v>1333.0</v>
+        <v>2120.0</v>
       </c>
       <c r="D172" t="n">
-        <v>3220.0</v>
+        <v>3462.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>627.0</v>
+        <v>698.0</v>
       </c>
       <c r="B173" t="n">
-        <v>1062.0</v>
+        <v>1613.0</v>
       </c>
       <c r="C173" t="n">
-        <v>1428.0</v>
+        <v>2363.0</v>
       </c>
       <c r="D173" t="n">
-        <v>3541.0</v>
+        <v>3570.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>706.0</v>
+        <v>754.0</v>
       </c>
       <c r="B174" t="n">
-        <v>1314.0</v>
+        <v>1685.0</v>
       </c>
       <c r="C174" t="n">
-        <v>1662.0</v>
+        <v>2738.0</v>
       </c>
       <c r="D174" t="n">
-        <v>3732.0</v>
+        <v>3594.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>799.0</v>
+        <v>761.0</v>
       </c>
       <c r="B175" t="n">
-        <v>1469.0</v>
+        <v>1710.0</v>
       </c>
       <c r="C175" t="n">
-        <v>1881.0</v>
+        <v>2846.0</v>
       </c>
       <c r="D175" t="n">
-        <v>3940.0</v>
+        <v>3860.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>731.0</v>
+        <v>767.0</v>
       </c>
       <c r="B176" t="n">
-        <v>1361.0</v>
+        <v>1542.0</v>
       </c>
       <c r="C176" t="n">
-        <v>1897.0</v>
+        <v>2875.0</v>
       </c>
       <c r="D176" t="n">
-        <v>4167.0</v>
+        <v>4641.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>735.0</v>
+        <v>778.0</v>
       </c>
       <c r="B177" t="n">
-        <v>1267.0</v>
+        <v>1538.0</v>
       </c>
       <c r="C177" t="n">
-        <v>1791.0</v>
+        <v>2742.0</v>
       </c>
       <c r="D177" t="n">
-        <v>4158.0</v>
+        <v>5119.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>720.0</v>
+        <v>756.0</v>
       </c>
       <c r="B178" t="n">
-        <v>1226.0</v>
+        <v>1575.0</v>
       </c>
       <c r="C178" t="n">
-        <v>1850.0</v>
+        <v>2797.0</v>
       </c>
       <c r="D178" t="n">
-        <v>4204.0</v>
+        <v>4957.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>751.0</v>
+        <v>856.0</v>
       </c>
       <c r="B179" t="n">
-        <v>1129.0</v>
+        <v>1662.0</v>
       </c>
       <c r="C179" t="n">
-        <v>1906.0</v>
+        <v>3112.0</v>
       </c>
       <c r="D179" t="n">
-        <v>4347.0</v>
+        <v>4842.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>736.0</v>
+        <v>895.0</v>
       </c>
       <c r="B180" t="n">
-        <v>1255.0</v>
+        <v>1840.0</v>
       </c>
       <c r="C180" t="n">
-        <v>2033.0</v>
+        <v>3358.0</v>
       </c>
       <c r="D180" t="n">
-        <v>4704.0</v>
+        <v>4974.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>886.0</v>
+        <v>916.0</v>
       </c>
       <c r="B181" t="n">
-        <v>1655.0</v>
+        <v>2007.0</v>
       </c>
       <c r="C181" t="n">
-        <v>2344.0</v>
+        <v>3652.0</v>
       </c>
       <c r="D181" t="n">
-        <v>4789.0</v>
+        <v>4975.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>893.0</v>
+        <v>897.0</v>
       </c>
       <c r="B182" t="n">
-        <v>1655.0</v>
+        <v>1869.0</v>
       </c>
       <c r="C182" t="n">
-        <v>2690.0</v>
+        <v>3824.0</v>
       </c>
       <c r="D182" t="n">
-        <v>5063.0</v>
+        <v>5288.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>922.0</v>
+        <v>936.0</v>
       </c>
       <c r="B183" t="n">
-        <v>1582.0</v>
+        <v>1713.0</v>
       </c>
       <c r="C183" t="n">
-        <v>2569.0</v>
+        <v>3640.0</v>
       </c>
       <c r="D183" t="n">
-        <v>5256.0</v>
+        <v>6256.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>899.0</v>
+        <v>967.0</v>
       </c>
       <c r="B184" t="n">
-        <v>1537.0</v>
+        <v>1708.0</v>
       </c>
       <c r="C184" t="n">
-        <v>2534.0</v>
+        <v>3345.0</v>
       </c>
       <c r="D184" t="n">
-        <v>5402.0</v>
+        <v>7050.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>798.0</v>
+        <v>993.0</v>
       </c>
       <c r="B185" t="n">
-        <v>1470.0</v>
+        <v>1840.0</v>
       </c>
       <c r="C185" t="n">
-        <v>2605.0</v>
+        <v>3454.0</v>
       </c>
       <c r="D185" t="n">
-        <v>5461.0</v>
+        <v>6489.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>856.0</v>
+        <v>935.0</v>
       </c>
       <c r="B186" t="n">
-        <v>1340.0</v>
+        <v>2045.0</v>
       </c>
       <c r="C186" t="n">
-        <v>2530.0</v>
+        <v>3987.0</v>
       </c>
       <c r="D186" t="n">
-        <v>5483.0</v>
+        <v>5925.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>911.0</v>
+        <v>931.0</v>
       </c>
       <c r="B187" t="n">
-        <v>1515.0</v>
+        <v>2224.0</v>
       </c>
       <c r="C187" t="n">
-        <v>2564.0</v>
+        <v>4190.0</v>
       </c>
       <c r="D187" t="n">
-        <v>5802.0</v>
+        <v>6163.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1026.0</v>
+        <v>1078.0</v>
       </c>
       <c r="B188" t="n">
-        <v>1950.0</v>
+        <v>2521.0</v>
       </c>
       <c r="C188" t="n">
-        <v>2921.0</v>
+        <v>4453.0</v>
       </c>
       <c r="D188" t="n">
-        <v>6165.0</v>
+        <v>6212.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1126.0</v>
+        <v>1069.0</v>
       </c>
       <c r="B189" t="n">
-        <v>2086.0</v>
+        <v>2363.0</v>
       </c>
       <c r="C189" t="n">
-        <v>3253.0</v>
+        <v>4447.0</v>
       </c>
       <c r="D189" t="n">
-        <v>6414.0</v>
+        <v>6448.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1045.0</v>
+        <v>1116.0</v>
       </c>
       <c r="B190" t="n">
-        <v>1906.0</v>
+        <v>1857.0</v>
       </c>
       <c r="C190" t="n">
-        <v>3217.0</v>
+        <v>4188.0</v>
       </c>
       <c r="D190" t="n">
-        <v>6656.0</v>
+        <v>7693.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1052.0</v>
+        <v>1249.0</v>
       </c>
       <c r="B191" t="n">
-        <v>1725.0</v>
+        <v>1894.0</v>
       </c>
       <c r="C191" t="n">
-        <v>2901.0</v>
+        <v>3718.0</v>
       </c>
       <c r="D191" t="n">
-        <v>6737.0</v>
+        <v>8616.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>997.0</v>
+        <v>1032.0</v>
       </c>
       <c r="B192" t="n">
-        <v>1735.0</v>
+        <v>2170.0</v>
       </c>
       <c r="C192" t="n">
-        <v>3020.0</v>
+        <v>3886.0</v>
       </c>
       <c r="D192" t="n">
-        <v>6589.0</v>
+        <v>7798.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>985.0</v>
+        <v>1087.0</v>
       </c>
       <c r="B193" t="n">
-        <v>1669.0</v>
+        <v>2390.0</v>
       </c>
       <c r="C193" t="n">
-        <v>2977.0</v>
+        <v>4086.0</v>
       </c>
       <c r="D193" t="n">
-        <v>6537.0</v>
+        <v>7243.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1028.0</v>
+        <v>1086.0</v>
       </c>
       <c r="B194" t="n">
-        <v>1889.0</v>
+        <v>2587.0</v>
       </c>
       <c r="C194" t="n">
-        <v>2891.0</v>
+        <v>4231.0</v>
       </c>
       <c r="D194" t="n">
-        <v>6935.0</v>
+        <v>7168.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1219.0</v>
+        <v>1133.0</v>
       </c>
       <c r="B195" t="n">
-        <v>2261.0</v>
+        <v>2830.0</v>
       </c>
       <c r="C195" t="n">
-        <v>3339.0</v>
+        <v>4461.0</v>
       </c>
       <c r="D195" t="n">
-        <v>7314.0</v>
+        <v>7088.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1287.0</v>
+        <v>1190.0</v>
       </c>
       <c r="B196" t="n">
-        <v>2369.0</v>
+        <v>2531.0</v>
       </c>
       <c r="C196" t="n">
-        <v>3602.0</v>
+        <v>4547.0</v>
       </c>
       <c r="D196" t="n">
-        <v>7555.0</v>
+        <v>7436.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1252.0</v>
+        <v>1216.0</v>
       </c>
       <c r="B197" t="n">
-        <v>2059.0</v>
+        <v>1997.0</v>
       </c>
       <c r="C197" t="n">
-        <v>3283.0</v>
+        <v>3951.0</v>
       </c>
       <c r="D197" t="n">
-        <v>7674.0</v>
+        <v>8736.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1217.0</v>
+        <v>1265.0</v>
       </c>
       <c r="B198" t="n">
-        <v>1931.0</v>
+        <v>1884.0</v>
       </c>
       <c r="C198" t="n">
-        <v>2962.0</v>
+        <v>3516.0</v>
       </c>
       <c r="D198" t="n">
-        <v>7637.0</v>
+        <v>9583.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1067.0</v>
+        <v>1254.0</v>
       </c>
       <c r="B199" t="n">
-        <v>1901.0</v>
+        <v>2105.0</v>
       </c>
       <c r="C199" t="n">
-        <v>3084.0</v>
+        <v>3725.0</v>
       </c>
       <c r="D199" t="n">
-        <v>7438.0</v>
+        <v>8342.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1100.0</v>
+        <v>1215.0</v>
       </c>
       <c r="B200" t="n">
-        <v>1756.0</v>
+        <v>2343.0</v>
       </c>
       <c r="C200" t="n">
-        <v>2962.0</v>
+        <v>3908.0</v>
       </c>
       <c r="D200" t="n">
-        <v>7286.0</v>
+        <v>7499.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1176.0</v>
+        <v>1238.0</v>
       </c>
       <c r="B201" t="n">
-        <v>2005.0</v>
+        <v>2655.0</v>
       </c>
       <c r="C201" t="n">
-        <v>2956.0</v>
+        <v>3952.0</v>
       </c>
       <c r="D201" t="n">
-        <v>7413.0</v>
+        <v>7571.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1380.0</v>
+        <v>1227.0</v>
       </c>
       <c r="B202" t="n">
-        <v>2394.0</v>
+        <v>2708.0</v>
       </c>
       <c r="C202" t="n">
-        <v>3275.0</v>
+        <v>4182.0</v>
       </c>
       <c r="D202" t="n">
-        <v>7767.0</v>
+        <v>7423.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1273.0</v>
+        <v>1228.0</v>
       </c>
       <c r="B203" t="n">
-        <v>2441.0</v>
+        <v>2590.0</v>
       </c>
       <c r="C203" t="n">
-        <v>3430.0</v>
+        <v>4185.0</v>
       </c>
       <c r="D203" t="n">
-        <v>7797.0</v>
+        <v>7422.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1277.0</v>
+        <v>1282.0</v>
       </c>
       <c r="B204" t="n">
-        <v>2150.0</v>
+        <v>2070.0</v>
       </c>
       <c r="C204" t="n">
-        <v>3193.0</v>
+        <v>3552.0</v>
       </c>
       <c r="D204" t="n">
-        <v>7849.0</v>
+        <v>8747.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1184.0</v>
+        <v>1304.0</v>
       </c>
       <c r="B205" t="n">
-        <v>1929.0</v>
+        <v>1895.0</v>
       </c>
       <c r="C205" t="n">
-        <v>2890.0</v>
+        <v>3020.0</v>
       </c>
       <c r="D205" t="n">
-        <v>7835.0</v>
+        <v>9372.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1123.0</v>
+        <v>1229.0</v>
       </c>
       <c r="B206" t="n">
-        <v>1884.0</v>
+        <v>2175.0</v>
       </c>
       <c r="C206" t="n">
-        <v>2928.0</v>
+        <v>3262.0</v>
       </c>
       <c r="D206" t="n">
-        <v>7467.0</v>
+        <v>8222.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1084.0</v>
+        <v>1214.0</v>
       </c>
       <c r="B207" t="n">
-        <v>1767.0</v>
+        <v>2257.0</v>
       </c>
       <c r="C207" t="n">
-        <v>2772.0</v>
+        <v>3317.0</v>
       </c>
       <c r="D207" t="n">
-        <v>7110.0</v>
+        <v>7353.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1111.0</v>
+        <v>1132.0</v>
       </c>
       <c r="B208" t="n">
-        <v>1691.0</v>
+        <v>2137.0</v>
       </c>
       <c r="C208" t="n">
-        <v>2464.0</v>
+        <v>3112.0</v>
       </c>
       <c r="D208" t="n">
-        <v>7378.0</v>
+        <v>7533.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1178.0</v>
+        <v>1209.0</v>
       </c>
       <c r="B209" t="n">
-        <v>1995.0</v>
+        <v>2166.0</v>
       </c>
       <c r="C209" t="n">
-        <v>2425.0</v>
+        <v>2715.0</v>
       </c>
       <c r="D209" t="n">
-        <v>7570.0</v>
+        <v>8177.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1147.0</v>
+        <v>1092.0</v>
       </c>
       <c r="B210" t="n">
-        <v>2088.0</v>
+        <v>2169.0</v>
       </c>
       <c r="C210" t="n">
-        <v>2717.0</v>
+        <v>3088.0</v>
       </c>
       <c r="D210" t="n">
-        <v>7203.0</v>
+        <v>7798.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1022.0</v>
+        <v>1145.0</v>
       </c>
       <c r="B211" t="n">
-        <v>1669.0</v>
+        <v>1694.0</v>
       </c>
       <c r="C211" t="n">
-        <v>2519.0</v>
+        <v>2852.0</v>
       </c>
       <c r="D211" t="n">
-        <v>6573.0</v>
+        <v>7444.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>993.0</v>
+        <v>1094.0</v>
       </c>
       <c r="B212" t="n">
-        <v>1481.0</v>
+        <v>1534.0</v>
       </c>
       <c r="C212" t="n">
-        <v>2048.0</v>
+        <v>2399.0</v>
       </c>
       <c r="D212" t="n">
-        <v>6448.0</v>
+        <v>7849.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>879.0</v>
+        <v>976.0</v>
       </c>
       <c r="B213" t="n">
-        <v>1460.0</v>
+        <v>1778.0</v>
       </c>
       <c r="C213" t="n">
-        <v>2147.0</v>
+        <v>2868.0</v>
       </c>
       <c r="D213" t="n">
-        <v>6241.0</v>
+        <v>6855.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>888.0</v>
+        <v>993.0</v>
       </c>
       <c r="B214" t="n">
-        <v>1351.0</v>
+        <v>1870.0</v>
       </c>
       <c r="C214" t="n">
-        <v>2216.0</v>
+        <v>2998.0</v>
       </c>
       <c r="D214" t="n">
-        <v>5948.0</v>
+        <v>6216.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>858.0</v>
+        <v>943.0</v>
       </c>
       <c r="B215" t="n">
-        <v>1488.0</v>
+        <v>2103.0</v>
       </c>
       <c r="C215" t="n">
-        <v>2237.0</v>
+        <v>3180.0</v>
       </c>
       <c r="D215" t="n">
-        <v>5969.0</v>
+        <v>5888.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>984.0</v>
+        <v>942.0</v>
       </c>
       <c r="B216" t="n">
-        <v>1764.0</v>
+        <v>2310.0</v>
       </c>
       <c r="C216" t="n">
-        <v>2457.0</v>
+        <v>3339.0</v>
       </c>
       <c r="D216" t="n">
-        <v>6105.0</v>
+        <v>5621.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>1055.0</v>
+        <v>1008.0</v>
       </c>
       <c r="B217" t="n">
-        <v>1805.0</v>
+        <v>2111.0</v>
       </c>
       <c r="C217" t="n">
-        <v>2467.0</v>
+        <v>3313.0</v>
       </c>
       <c r="D217" t="n">
-        <v>5952.0</v>
+        <v>5780.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>966.0</v>
+        <v>1004.0</v>
       </c>
       <c r="B218" t="n">
-        <v>1695.0</v>
+        <v>1712.0</v>
       </c>
       <c r="C218" t="n">
-        <v>2432.0</v>
+        <v>2958.0</v>
       </c>
       <c r="D218" t="n">
-        <v>6005.0</v>
+        <v>6751.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>910.0</v>
+        <v>1010.0</v>
       </c>
       <c r="B219" t="n">
-        <v>1550.0</v>
+        <v>1619.0</v>
       </c>
       <c r="C219" t="n">
-        <v>2223.0</v>
+        <v>2508.0</v>
       </c>
       <c r="D219" t="n">
-        <v>5794.0</v>
+        <v>7247.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>829.0</v>
+        <v>967.0</v>
       </c>
       <c r="B220" t="n">
-        <v>1459.0</v>
+        <v>1677.0</v>
       </c>
       <c r="C220" t="n">
-        <v>2178.0</v>
+        <v>2592.0</v>
       </c>
       <c r="D220" t="n">
-        <v>5473.0</v>
+        <v>6233.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>841.0</v>
+        <v>902.0</v>
       </c>
       <c r="B221" t="n">
-        <v>1149.0</v>
+        <v>1576.0</v>
       </c>
       <c r="C221" t="n">
-        <v>1985.0</v>
+        <v>2466.0</v>
       </c>
       <c r="D221" t="n">
-        <v>5464.0</v>
+        <v>5896.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>845.0</v>
+        <v>889.0</v>
       </c>
       <c r="B222" t="n">
-        <v>1147.0</v>
+        <v>1530.0</v>
       </c>
       <c r="C222" t="n">
-        <v>1718.0</v>
+        <v>2158.0</v>
       </c>
       <c r="D222" t="n">
-        <v>5462.0</v>
+        <v>6382.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>903.0</v>
+        <v>927.0</v>
       </c>
       <c r="B223" t="n">
-        <v>1492.0</v>
+        <v>1845.0</v>
       </c>
       <c r="C223" t="n">
-        <v>1899.0</v>
+        <v>2460.0</v>
       </c>
       <c r="D223" t="n">
-        <v>5387.0</v>
+        <v>5727.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>871.0</v>
+        <v>852.0</v>
       </c>
       <c r="B224" t="n">
-        <v>1480.0</v>
+        <v>1718.0</v>
       </c>
       <c r="C224" t="n">
-        <v>2019.0</v>
+        <v>2592.0</v>
       </c>
       <c r="D224" t="n">
-        <v>5185.0</v>
+        <v>5216.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>804.0</v>
+        <v>791.0</v>
       </c>
       <c r="B225" t="n">
-        <v>1297.0</v>
+        <v>1337.0</v>
       </c>
       <c r="C225" t="n">
-        <v>1747.0</v>
+        <v>2359.0</v>
       </c>
       <c r="D225" t="n">
-        <v>5126.0</v>
+        <v>5636.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>785.0</v>
+        <v>844.0</v>
       </c>
       <c r="B226" t="n">
-        <v>1218.0</v>
+        <v>1340.0</v>
       </c>
       <c r="C226" t="n">
-        <v>1807.0</v>
+        <v>2170.0</v>
       </c>
       <c r="D226" t="n">
-        <v>5028.0</v>
+        <v>5789.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>776.0</v>
+        <v>737.0</v>
       </c>
       <c r="B227" t="n">
-        <v>1177.0</v>
+        <v>1527.0</v>
       </c>
       <c r="C227" t="n">
-        <v>1887.0</v>
+        <v>2359.0</v>
       </c>
       <c r="D227" t="n">
-        <v>4772.0</v>
+        <v>5105.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>723.0</v>
+        <v>791.0</v>
       </c>
       <c r="B228" t="n">
-        <v>1110.0</v>
+        <v>1570.0</v>
       </c>
       <c r="C228" t="n">
-        <v>1860.0</v>
+        <v>2538.0</v>
       </c>
       <c r="D228" t="n">
-        <v>4680.0</v>
+        <v>4580.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>750.0</v>
+        <v>734.0</v>
       </c>
       <c r="B229" t="n">
-        <v>1187.0</v>
+        <v>1696.0</v>
       </c>
       <c r="C229" t="n">
-        <v>1892.0</v>
+        <v>2611.0</v>
       </c>
       <c r="D229" t="n">
-        <v>4618.0</v>
+        <v>4535.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>787.0</v>
+        <v>737.0</v>
       </c>
       <c r="B230" t="n">
-        <v>1501.0</v>
+        <v>1965.0</v>
       </c>
       <c r="C230" t="n">
-        <v>1938.0</v>
+        <v>2705.0</v>
       </c>
       <c r="D230" t="n">
-        <v>4544.0</v>
+        <v>4393.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>889.0</v>
+        <v>790.0</v>
       </c>
       <c r="B231" t="n">
-        <v>1557.0</v>
+        <v>1803.0</v>
       </c>
       <c r="C231" t="n">
-        <v>2096.0</v>
+        <v>2751.0</v>
       </c>
       <c r="D231" t="n">
-        <v>4759.0</v>
+        <v>4347.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>840.0</v>
+        <v>813.0</v>
       </c>
       <c r="B232" t="n">
-        <v>1469.0</v>
+        <v>1489.0</v>
       </c>
       <c r="C232" t="n">
-        <v>2036.0</v>
+        <v>2667.0</v>
       </c>
       <c r="D232" t="n">
-        <v>4551.0</v>
+        <v>5045.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>814.0</v>
+        <v>782.0</v>
       </c>
       <c r="B233" t="n">
-        <v>1383.0</v>
+        <v>1415.0</v>
       </c>
       <c r="C233" t="n">
-        <v>1995.0</v>
+        <v>2346.0</v>
       </c>
       <c r="D233" t="n">
-        <v>4560.0</v>
+        <v>5487.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>698.0</v>
+        <v>733.0</v>
       </c>
       <c r="B234" t="n">
-        <v>1162.0</v>
+        <v>1444.0</v>
       </c>
       <c r="C234" t="n">
-        <v>1856.0</v>
+        <v>2345.0</v>
       </c>
       <c r="D234" t="n">
-        <v>4531.0</v>
+        <v>4876.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>698.0</v>
+        <v>741.0</v>
       </c>
       <c r="B235" t="n">
-        <v>1089.0</v>
+        <v>1403.0</v>
       </c>
       <c r="C235" t="n">
-        <v>1706.0</v>
+        <v>2152.0</v>
       </c>
       <c r="D235" t="n">
-        <v>4563.0</v>
+        <v>4479.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>710.0</v>
+        <v>769.0</v>
       </c>
       <c r="B236" t="n">
-        <v>1181.0</v>
+        <v>1489.0</v>
       </c>
       <c r="C236" t="n">
-        <v>1476.0</v>
+        <v>1672.0</v>
       </c>
       <c r="D236" t="n">
-        <v>4606.0</v>
+        <v>4358.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>813.0</v>
+        <v>771.0</v>
       </c>
       <c r="B237" t="n">
-        <v>1463.0</v>
+        <v>1712.0</v>
       </c>
       <c r="C237" t="n">
-        <v>1320.0</v>
+        <v>1414.0</v>
       </c>
       <c r="D237" t="n">
-        <v>4342.0</v>
+        <v>4021.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>820.0</v>
+        <v>802.0</v>
       </c>
       <c r="B238" t="n">
-        <v>1545.0</v>
+        <v>1664.0</v>
       </c>
       <c r="C238" t="n">
-        <v>1260.0</v>
+        <v>1194.0</v>
       </c>
       <c r="D238" t="n">
-        <v>4374.0</v>
+        <v>3888.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>807.0</v>
+        <v>698.0</v>
       </c>
       <c r="B239" t="n">
-        <v>1514.0</v>
+        <v>1437.0</v>
       </c>
       <c r="C239" t="n">
-        <v>888.0</v>
+        <v>876.0</v>
       </c>
       <c r="D239" t="n">
-        <v>4009.0</v>
+        <v>4081.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>746.0</v>
+        <v>685.0</v>
       </c>
       <c r="B240" t="n">
-        <v>1287.0</v>
+        <v>1238.0</v>
       </c>
       <c r="C240" t="n">
-        <v>633.0</v>
+        <v>579.0</v>
       </c>
       <c r="D240" t="n">
-        <v>3796.0</v>
+        <v>3919.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>691.0</v>
+        <v>625.0</v>
       </c>
       <c r="B241" t="n">
-        <v>1171.0</v>
+        <v>1311.0</v>
       </c>
       <c r="C241" t="n">
-        <v>402.0</v>
+        <v>378.0</v>
       </c>
       <c r="D241" t="n">
-        <v>3632.0</v>
+        <v>3570.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>595.0</v>
+        <v>586.0</v>
       </c>
       <c r="B242" t="n">
-        <v>1010.0</v>
+        <v>1286.0</v>
       </c>
       <c r="C242" t="n">
-        <v>351.0</v>
+        <v>285.0</v>
       </c>
       <c r="D242" t="n">
-        <v>3432.0</v>
+        <v>3366.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>617.0</v>
+        <v>582.0</v>
       </c>
       <c r="B243" t="n">
-        <v>1071.0</v>
+        <v>1280.0</v>
       </c>
       <c r="C243" t="n">
-        <v>365.0</v>
+        <v>222.0</v>
       </c>
       <c r="D243" t="n">
-        <v>3359.0</v>
+        <v>3046.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>646.0</v>
+        <v>579.0</v>
       </c>
       <c r="B244" t="n">
-        <v>1284.0</v>
+        <v>1371.0</v>
       </c>
       <c r="C244" t="n">
-        <v>327.0</v>
+        <v>215.0</v>
       </c>
       <c r="D244" t="n">
-        <v>3104.0</v>
+        <v>2702.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>715.0</v>
+        <v>565.0</v>
       </c>
       <c r="B245" t="n">
-        <v>1448.0</v>
+        <v>1445.0</v>
       </c>
       <c r="C245" t="n">
-        <v>317.0</v>
+        <v>214.0</v>
       </c>
       <c r="D245" t="n">
-        <v>2858.0</v>
+        <v>2374.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>631.0</v>
+        <v>578.0</v>
       </c>
       <c r="B246" t="n">
-        <v>1323.0</v>
+        <v>1163.0</v>
       </c>
       <c r="C246" t="n">
-        <v>310.0</v>
+        <v>231.0</v>
       </c>
       <c r="D246" t="n">
-        <v>2582.0</v>
+        <v>2395.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>599.0</v>
+        <v>518.0</v>
       </c>
       <c r="B247" t="n">
-        <v>1147.0</v>
+        <v>1187.0</v>
       </c>
       <c r="C247" t="n">
-        <v>309.0</v>
+        <v>303.0</v>
       </c>
       <c r="D247" t="n">
-        <v>2402.0</v>
+        <v>2339.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>520.0</v>
+        <v>507.0</v>
       </c>
       <c r="B248" t="n">
-        <v>927.0</v>
+        <v>1023.0</v>
       </c>
       <c r="C248" t="n">
-        <v>395.0</v>
+        <v>410.0</v>
       </c>
       <c r="D248" t="n">
-        <v>2364.0</v>
+        <v>2238.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>526.0</v>
+        <v>431.0</v>
       </c>
       <c r="B249" t="n">
-        <v>831.0</v>
+        <v>934.0</v>
       </c>
       <c r="C249" t="n">
-        <v>510.0</v>
+        <v>574.0</v>
       </c>
       <c r="D249" t="n">
-        <v>2398.0</v>
+        <v>2174.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>492.0</v>
+        <v>467.0</v>
       </c>
       <c r="B250" t="n">
-        <v>792.0</v>
+        <v>1004.0</v>
       </c>
       <c r="C250" t="n">
-        <v>611.0</v>
+        <v>704.0</v>
       </c>
       <c r="D250" t="n">
-        <v>2452.0</v>
+        <v>2121.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>517.0</v>
+        <v>444.0</v>
       </c>
       <c r="B251" t="n">
-        <v>1026.0</v>
+        <v>1105.0</v>
       </c>
       <c r="C251" t="n">
-        <v>635.0</v>
+        <v>825.0</v>
       </c>
       <c r="D251" t="n">
-        <v>2453.0</v>
+        <v>2039.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>567.0</v>
+        <v>463.0</v>
       </c>
       <c r="B252" t="n">
-        <v>1161.0</v>
+        <v>1127.0</v>
       </c>
       <c r="C252" t="n">
-        <v>810.0</v>
+        <v>957.0</v>
       </c>
       <c r="D252" t="n">
-        <v>2374.0</v>
+        <v>1918.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>584.0</v>
+        <v>465.0</v>
       </c>
       <c r="B253" t="n">
-        <v>1084.0</v>
+        <v>1038.0</v>
       </c>
       <c r="C253" t="n">
-        <v>794.0</v>
+        <v>984.0</v>
       </c>
       <c r="D253" t="n">
-        <v>2398.0</v>
+        <v>1947.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>529.0</v>
+        <v>470.0</v>
       </c>
       <c r="B254" t="n">
-        <v>974.0</v>
+        <v>1002.0</v>
       </c>
       <c r="C254" t="n">
-        <v>800.0</v>
+        <v>982.0</v>
       </c>
       <c r="D254" t="n">
-        <v>2426.0</v>
+        <v>2193.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>553.0</v>
+        <v>466.0</v>
       </c>
       <c r="B255" t="n">
-        <v>825.0</v>
+        <v>902.0</v>
       </c>
       <c r="C255" t="n">
-        <v>804.0</v>
+        <v>987.0</v>
       </c>
       <c r="D255" t="n">
-        <v>2518.0</v>
+        <v>2249.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>472.0</v>
+        <v>438.0</v>
       </c>
       <c r="B256" t="n">
-        <v>740.0</v>
+        <v>840.0</v>
       </c>
       <c r="C256" t="n">
-        <v>889.0</v>
+        <v>1075.0</v>
       </c>
       <c r="D256" t="n">
-        <v>2428.0</v>
+        <v>2154.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>460.0</v>
+        <v>440.0</v>
       </c>
       <c r="B257" t="n">
-        <v>744.0</v>
+        <v>822.0</v>
       </c>
       <c r="C257" t="n">
-        <v>894.0</v>
+        <v>1196.0</v>
       </c>
       <c r="D257" t="n">
-        <v>2489.0</v>
+        <v>2186.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>544.0</v>
+        <v>450.0</v>
       </c>
       <c r="B258" t="n">
-        <v>890.0</v>
+        <v>977.0</v>
       </c>
       <c r="C258" t="n">
-        <v>1024.0</v>
+        <v>1346.0</v>
       </c>
       <c r="D258" t="n">
-        <v>2562.0</v>
+        <v>2056.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>529.0</v>
+        <v>396.0</v>
       </c>
       <c r="B259" t="n">
-        <v>1047.0</v>
+        <v>1090.0</v>
       </c>
       <c r="C259" t="n">
-        <v>1144.0</v>
+        <v>1370.0</v>
       </c>
       <c r="D259" t="n">
-        <v>2637.0</v>
+        <v>1925.0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>526.0</v>
+        <v>436.0</v>
       </c>
       <c r="B260" t="n">
-        <v>1028.0</v>
+        <v>967.0</v>
       </c>
       <c r="C260" t="n">
-        <v>1154.0</v>
+        <v>1386.0</v>
       </c>
       <c r="D260" t="n">
-        <v>2529.0</v>
+        <v>2096.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>516.0</v>
+        <v>414.0</v>
       </c>
       <c r="B261" t="n">
-        <v>880.0</v>
+        <v>859.0</v>
       </c>
       <c r="C261" t="n">
-        <v>1087.0</v>
+        <v>1316.0</v>
       </c>
       <c r="D261" t="n">
-        <v>2553.0</v>
+        <v>2245.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>481.0</v>
+        <v>443.0</v>
       </c>
       <c r="B262" t="n">
-        <v>794.0</v>
+        <v>777.0</v>
       </c>
       <c r="C262" t="n">
-        <v>1085.0</v>
+        <v>1286.0</v>
       </c>
       <c r="D262" t="n">
-        <v>2636.0</v>
+        <v>2382.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>463.0</v>
+        <v>407.0</v>
       </c>
       <c r="B263" t="n">
-        <v>701.0</v>
+        <v>751.0</v>
       </c>
       <c r="C263" t="n">
-        <v>1120.0</v>
+        <v>1366.0</v>
       </c>
       <c r="D263" t="n">
-        <v>2514.0</v>
+        <v>2412.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>488.0</v>
+        <v>440.0</v>
       </c>
       <c r="B264" t="n">
-        <v>720.0</v>
+        <v>751.0</v>
       </c>
       <c r="C264" t="n">
-        <v>1100.0</v>
+        <v>1448.0</v>
       </c>
       <c r="D264" t="n">
-        <v>2617.0</v>
+        <v>2376.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>476.0</v>
+        <v>426.0</v>
       </c>
       <c r="B265" t="n">
-        <v>892.0</v>
+        <v>955.0</v>
       </c>
       <c r="C265" t="n">
-        <v>1128.0</v>
+        <v>1546.0</v>
       </c>
       <c r="D265" t="n">
-        <v>2715.0</v>
+        <v>2222.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>520.0</v>
+        <v>453.0</v>
       </c>
       <c r="B266" t="n">
-        <v>940.0</v>
+        <v>952.0</v>
       </c>
       <c r="C266" t="n">
-        <v>1328.0</v>
+        <v>1647.0</v>
       </c>
       <c r="D266" t="n">
-        <v>2706.0</v>
+        <v>2134.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>542.0</v>
+        <v>402.0</v>
       </c>
       <c r="B267" t="n">
-        <v>950.0</v>
+        <v>906.0</v>
       </c>
       <c r="C267" t="n">
-        <v>1411.0</v>
+        <v>1666.0</v>
       </c>
       <c r="D267" t="n">
-        <v>2702.0</v>
+        <v>2285.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>523.0</v>
+        <v>440.0</v>
       </c>
       <c r="B268" t="n">
-        <v>867.0</v>
+        <v>809.0</v>
       </c>
       <c r="C268" t="n">
-        <v>1302.0</v>
+        <v>1593.0</v>
       </c>
       <c r="D268" t="n">
-        <v>2786.0</v>
+        <v>2515.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>504.0</v>
+        <v>401.0</v>
       </c>
       <c r="B269" t="n">
-        <v>776.0</v>
+        <v>764.0</v>
       </c>
       <c r="C269" t="n">
-        <v>1210.0</v>
+        <v>1481.0</v>
       </c>
       <c r="D269" t="n">
-        <v>2702.0</v>
+        <v>2535.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>447.0</v>
+        <v>408.0</v>
       </c>
       <c r="B270" t="n">
-        <v>741.0</v>
+        <v>779.0</v>
       </c>
       <c r="C270" t="n">
-        <v>1148.0</v>
+        <v>1544.0</v>
       </c>
       <c r="D270" t="n">
-        <v>2760.0</v>
+        <v>2500.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>462.0</v>
+        <v>401.0</v>
       </c>
       <c r="B271" t="n">
-        <v>753.0</v>
+        <v>795.0</v>
       </c>
       <c r="C271" t="n">
-        <v>1255.0</v>
+        <v>1502.0</v>
       </c>
       <c r="D271" t="n">
-        <v>2705.0</v>
+        <v>2494.0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>454.0</v>
+        <v>419.0</v>
       </c>
       <c r="B272" t="n">
-        <v>875.0</v>
+        <v>935.0</v>
       </c>
       <c r="C272" t="n">
-        <v>1303.0</v>
+        <v>1600.0</v>
       </c>
       <c r="D272" t="n">
-        <v>2699.0</v>
+        <v>2292.0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>540.0</v>
+        <v>402.0</v>
       </c>
       <c r="B273" t="n">
-        <v>1007.0</v>
+        <v>1012.0</v>
       </c>
       <c r="C273" t="n">
-        <v>1456.0</v>
+        <v>1674.0</v>
       </c>
       <c r="D273" t="n">
-        <v>2709.0</v>
+        <v>2235.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>540.0</v>
+        <v>444.0</v>
       </c>
       <c r="B274" t="n">
-        <v>988.0</v>
+        <v>905.0</v>
       </c>
       <c r="C274" t="n">
-        <v>1511.0</v>
+        <v>1697.0</v>
       </c>
       <c r="D274" t="n">
-        <v>2792.0</v>
+        <v>2324.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>483.0</v>
+        <v>481.0</v>
       </c>
       <c r="B275" t="n">
-        <v>880.0</v>
+        <v>817.0</v>
       </c>
       <c r="C275" t="n">
-        <v>1326.0</v>
+        <v>1582.0</v>
       </c>
       <c r="D275" t="n">
-        <v>2779.0</v>
+        <v>2613.0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>482.0</v>
+        <v>402.0</v>
       </c>
       <c r="B276" t="n">
-        <v>684.0</v>
+        <v>677.0</v>
       </c>
       <c r="C276" t="n">
-        <v>1103.0</v>
+        <v>1310.0</v>
       </c>
       <c r="D276" t="n">
-        <v>2875.0</v>
+        <v>2824.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>411.0</v>
+        <v>431.0</v>
       </c>
       <c r="B277" t="n">
-        <v>571.0</v>
+        <v>615.0</v>
       </c>
       <c r="C277" t="n">
-        <v>970.0</v>
+        <v>1252.0</v>
       </c>
       <c r="D277" t="n">
-        <v>2818.0</v>
+        <v>2869.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>393.0</v>
+        <v>415.0</v>
       </c>
       <c r="B278" t="n">
-        <v>583.0</v>
+        <v>677.0</v>
       </c>
       <c r="C278" t="n">
-        <v>1025.0</v>
+        <v>1287.0</v>
       </c>
       <c r="D278" t="n">
-        <v>2831.0</v>
+        <v>2756.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>418.0</v>
+        <v>413.0</v>
       </c>
       <c r="B279" t="n">
-        <v>635.0</v>
+        <v>749.0</v>
       </c>
       <c r="C279" t="n">
-        <v>1022.0</v>
+        <v>1273.0</v>
       </c>
       <c r="D279" t="n">
-        <v>2767.0</v>
+        <v>2635.0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>489.0</v>
+        <v>453.0</v>
       </c>
       <c r="B280" t="n">
-        <v>775.0</v>
+        <v>887.0</v>
       </c>
       <c r="C280" t="n">
-        <v>1131.0</v>
+        <v>1428.0</v>
       </c>
       <c r="D280" t="n">
-        <v>2624.0</v>
+        <v>2408.0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>498.0</v>
+        <v>414.0</v>
       </c>
       <c r="B281" t="n">
-        <v>857.0</v>
+        <v>886.0</v>
       </c>
       <c r="C281" t="n">
-        <v>1172.0</v>
+        <v>1548.0</v>
       </c>
       <c r="D281" t="n">
-        <v>2598.0</v>
+        <v>2331.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>498.0</v>
+        <v>377.0</v>
       </c>
       <c r="B282" t="n">
-        <v>746.0</v>
+        <v>796.0</v>
       </c>
       <c r="C282" t="n">
-        <v>1224.0</v>
+        <v>1526.0</v>
       </c>
       <c r="D282" t="n">
-        <v>2476.0</v>
+        <v>2445.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>438.0</v>
+        <v>417.0</v>
       </c>
       <c r="B283" t="n">
-        <v>701.0</v>
+        <v>760.0</v>
       </c>
       <c r="C283" t="n">
-        <v>999.0</v>
+        <v>1370.0</v>
       </c>
       <c r="D283" t="n">
-        <v>2556.0</v>
+        <v>2561.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>418.0</v>
+        <v>378.0</v>
       </c>
       <c r="B284" t="n">
-        <v>671.0</v>
+        <v>689.0</v>
       </c>
       <c r="C284" t="n">
-        <v>976.0</v>
+        <v>1359.0</v>
       </c>
       <c r="D284" t="n">
-        <v>2546.0</v>
+        <v>2475.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>404.0</v>
+        <v>403.0</v>
       </c>
       <c r="B285" t="n">
-        <v>607.0</v>
+        <v>680.0</v>
       </c>
       <c r="C285" t="n">
-        <v>866.0</v>
+        <v>1255.0</v>
       </c>
       <c r="D285" t="n">
-        <v>2385.0</v>
+        <v>2665.0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>436.0</v>
+        <v>405.0</v>
       </c>
       <c r="B286" t="n">
-        <v>677.0</v>
+        <v>777.0</v>
       </c>
       <c r="C286" t="n">
-        <v>922.0</v>
+        <v>1342.0</v>
       </c>
       <c r="D286" t="n">
-        <v>2371.0</v>
+        <v>2427.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>412.0</v>
+        <v>414.0</v>
       </c>
       <c r="B287" t="n">
-        <v>787.0</v>
+        <v>859.0</v>
       </c>
       <c r="C287" t="n">
-        <v>949.0</v>
+        <v>1454.0</v>
       </c>
       <c r="D287" t="n">
-        <v>2427.0</v>
+        <v>2260.0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>426.0</v>
+        <v>431.0</v>
       </c>
       <c r="B288" t="n">
-        <v>704.0</v>
+        <v>825.0</v>
       </c>
       <c r="C288" t="n">
-        <v>1120.0</v>
+        <v>1540.0</v>
       </c>
       <c r="D288" t="n">
-        <v>2264.0</v>
+        <v>2267.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>416.0</v>
+        <v>419.0</v>
       </c>
       <c r="B289" t="n">
-        <v>644.0</v>
+        <v>757.0</v>
       </c>
       <c r="C289" t="n">
-        <v>1020.0</v>
+        <v>1384.0</v>
       </c>
       <c r="D289" t="n">
-        <v>2309.0</v>
+        <v>2467.0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>460.0</v>
+        <v>433.0</v>
       </c>
       <c r="B290" t="n">
-        <v>655.0</v>
+        <v>761.0</v>
       </c>
       <c r="C290" t="n">
-        <v>1018.0</v>
+        <v>1302.0</v>
       </c>
       <c r="D290" t="n">
-        <v>2326.0</v>
+        <v>2488.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>430.0</v>
+        <v>416.0</v>
       </c>
       <c r="B291" t="n">
-        <v>650.0</v>
+        <v>814.0</v>
       </c>
       <c r="C291" t="n">
-        <v>1017.0</v>
+        <v>1476.0</v>
       </c>
       <c r="D291" t="n">
-        <v>2247.0</v>
+        <v>2356.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>396.0</v>
+        <v>434.0</v>
       </c>
       <c r="B292" t="n">
-        <v>706.0</v>
+        <v>833.0</v>
       </c>
       <c r="C292" t="n">
-        <v>1044.0</v>
+        <v>1477.0</v>
       </c>
       <c r="D292" t="n">
-        <v>2368.0</v>
+        <v>2231.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>466.0</v>
+        <v>421.0</v>
       </c>
       <c r="B293" t="n">
-        <v>768.0</v>
+        <v>934.0</v>
       </c>
       <c r="C293" t="n">
-        <v>1028.0</v>
+        <v>1582.0</v>
       </c>
       <c r="D293" t="n">
-        <v>2296.0</v>
+        <v>2178.0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>501.0</v>
+        <v>461.0</v>
       </c>
       <c r="B294" t="n">
-        <v>865.0</v>
+        <v>1008.0</v>
       </c>
       <c r="C294" t="n">
-        <v>1187.0</v>
+        <v>1702.0</v>
       </c>
       <c r="D294" t="n">
-        <v>2370.0</v>
+        <v>2095.0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>489.0</v>
+        <v>437.0</v>
       </c>
       <c r="B295" t="n">
-        <v>883.0</v>
+        <v>930.0</v>
       </c>
       <c r="C295" t="n">
-        <v>1191.0</v>
+        <v>1648.0</v>
       </c>
       <c r="D295" t="n">
-        <v>2321.0</v>
+        <v>2259.0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>460.0</v>
+        <v>476.0</v>
       </c>
       <c r="B296" t="n">
-        <v>817.0</v>
+        <v>767.0</v>
       </c>
       <c r="C296" t="n">
-        <v>1110.0</v>
+        <v>1558.0</v>
       </c>
       <c r="D296" t="n">
-        <v>2344.0</v>
+        <v>2581.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>459.0</v>
+        <v>470.0</v>
       </c>
       <c r="B297" t="n">
-        <v>715.0</v>
+        <v>797.0</v>
       </c>
       <c r="C297" t="n">
-        <v>1039.0</v>
+        <v>1393.0</v>
       </c>
       <c r="D297" t="n">
-        <v>2378.0</v>
+        <v>2727.0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>449.0</v>
+        <v>453.0</v>
       </c>
       <c r="B298" t="n">
-        <v>735.0</v>
+        <v>829.0</v>
       </c>
       <c r="C298" t="n">
-        <v>1090.0</v>
+        <v>1527.0</v>
       </c>
       <c r="D298" t="n">
-        <v>2442.0</v>
+        <v>2570.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>465.0</v>
+        <v>411.0</v>
       </c>
       <c r="B299" t="n">
-        <v>776.0</v>
+        <v>908.0</v>
       </c>
       <c r="C299" t="n">
-        <v>1095.0</v>
+        <v>1531.0</v>
       </c>
       <c r="D299" t="n">
-        <v>2364.0</v>
+        <v>2415.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>419.0</v>
+        <v>449.0</v>
       </c>
       <c r="B300" t="n">
-        <v>842.0</v>
+        <v>999.0</v>
       </c>
       <c r="C300" t="n">
-        <v>1132.0</v>
+        <v>1472.0</v>
       </c>
       <c r="D300" t="n">
-        <v>2470.0</v>
+        <v>2398.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>493.0</v>
+        <v>463.0</v>
       </c>
       <c r="B301" t="n">
-        <v>1021.0</v>
+        <v>1097.0</v>
       </c>
       <c r="C301" t="n">
-        <v>1213.0</v>
+        <v>1593.0</v>
       </c>
       <c r="D301" t="n">
-        <v>2415.0</v>
+        <v>2378.0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>475.0</v>
+        <v>432.0</v>
       </c>
       <c r="B302" t="n">
-        <v>931.0</v>
+        <v>959.0</v>
       </c>
       <c r="C302" t="n">
-        <v>1275.0</v>
+        <v>1679.0</v>
       </c>
       <c r="D302" t="n">
-        <v>2612.0</v>
+        <v>2497.0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>431.0</v>
+        <v>433.0</v>
       </c>
       <c r="B303" t="n">
-        <v>807.0</v>
+        <v>877.0</v>
       </c>
       <c r="C303" t="n">
-        <v>1195.0</v>
+        <v>1458.0</v>
       </c>
       <c r="D303" t="n">
-        <v>2571.0</v>
+        <v>2838.0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>424.0</v>
+        <v>459.0</v>
       </c>
       <c r="B304" t="n">
-        <v>718.0</v>
+        <v>878.0</v>
       </c>
       <c r="C304" t="n">
-        <v>1010.0</v>
+        <v>1413.0</v>
       </c>
       <c r="D304" t="n">
-        <v>2512.0</v>
+        <v>2967.0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>415.0</v>
+        <v>447.0</v>
       </c>
       <c r="B305" t="n">
-        <v>833.0</v>
+        <v>956.0</v>
       </c>
       <c r="C305" t="n">
-        <v>1092.0</v>
+        <v>1519.0</v>
       </c>
       <c r="D305" t="n">
-        <v>2515.0</v>
+        <v>2566.0</v>
       </c>
     </row>
     <row r="306">
@@ -4619,839 +4619,839 @@
         <v>438.0</v>
       </c>
       <c r="B306" t="n">
-        <v>790.0</v>
+        <v>928.0</v>
       </c>
       <c r="C306" t="n">
-        <v>1104.0</v>
+        <v>1484.0</v>
       </c>
       <c r="D306" t="n">
-        <v>2451.0</v>
+        <v>2475.0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>409.0</v>
+        <v>453.0</v>
       </c>
       <c r="B307" t="n">
-        <v>868.0</v>
+        <v>1007.0</v>
       </c>
       <c r="C307" t="n">
-        <v>980.0</v>
+        <v>1216.0</v>
       </c>
       <c r="D307" t="n">
-        <v>2544.0</v>
+        <v>2396.0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>526.0</v>
+        <v>504.0</v>
       </c>
       <c r="B308" t="n">
-        <v>1015.0</v>
+        <v>1148.0</v>
       </c>
       <c r="C308" t="n">
-        <v>840.0</v>
+        <v>949.0</v>
       </c>
       <c r="D308" t="n">
-        <v>2451.0</v>
+        <v>2318.0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>516.0</v>
+        <v>481.0</v>
       </c>
       <c r="B309" t="n">
-        <v>966.0</v>
+        <v>998.0</v>
       </c>
       <c r="C309" t="n">
-        <v>740.0</v>
+        <v>773.0</v>
       </c>
       <c r="D309" t="n">
-        <v>2466.0</v>
+        <v>2509.0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>444.0</v>
+        <v>474.0</v>
       </c>
       <c r="B310" t="n">
-        <v>760.0</v>
+        <v>794.0</v>
       </c>
       <c r="C310" t="n">
-        <v>620.0</v>
+        <v>647.0</v>
       </c>
       <c r="D310" t="n">
-        <v>2304.0</v>
+        <v>2789.0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>402.0</v>
+        <v>430.0</v>
       </c>
       <c r="B311" t="n">
-        <v>724.0</v>
+        <v>845.0</v>
       </c>
       <c r="C311" t="n">
-        <v>460.0</v>
+        <v>498.0</v>
       </c>
       <c r="D311" t="n">
-        <v>2189.0</v>
+        <v>2592.0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>400.0</v>
+        <v>431.0</v>
       </c>
       <c r="B312" t="n">
-        <v>772.0</v>
+        <v>920.0</v>
       </c>
       <c r="C312" t="n">
-        <v>333.0</v>
+        <v>338.0</v>
       </c>
       <c r="D312" t="n">
-        <v>2023.0</v>
+        <v>2200.0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>388.0</v>
+        <v>450.0</v>
       </c>
       <c r="B313" t="n">
-        <v>766.0</v>
+        <v>941.0</v>
       </c>
       <c r="C313" t="n">
-        <v>242.0</v>
+        <v>211.0</v>
       </c>
       <c r="D313" t="n">
-        <v>1981.0</v>
+        <v>1972.0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>376.0</v>
+        <v>395.0</v>
       </c>
       <c r="B314" t="n">
-        <v>788.0</v>
+        <v>1014.0</v>
       </c>
       <c r="C314" t="n">
-        <v>249.0</v>
+        <v>181.0</v>
       </c>
       <c r="D314" t="n">
-        <v>1912.0</v>
+        <v>1951.0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>435.0</v>
+        <v>440.0</v>
       </c>
       <c r="B315" t="n">
-        <v>908.0</v>
+        <v>1036.0</v>
       </c>
       <c r="C315" t="n">
-        <v>237.0</v>
+        <v>174.0</v>
       </c>
       <c r="D315" t="n">
-        <v>1880.0</v>
+        <v>1678.0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>449.0</v>
+        <v>399.0</v>
       </c>
       <c r="B316" t="n">
-        <v>904.0</v>
+        <v>987.0</v>
       </c>
       <c r="C316" t="n">
-        <v>255.0</v>
+        <v>207.0</v>
       </c>
       <c r="D316" t="n">
-        <v>1853.0</v>
+        <v>1735.0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>397.0</v>
+        <v>396.0</v>
       </c>
       <c r="B317" t="n">
-        <v>649.0</v>
+        <v>734.0</v>
       </c>
       <c r="C317" t="n">
-        <v>205.0</v>
+        <v>227.0</v>
       </c>
       <c r="D317" t="n">
-        <v>1789.0</v>
+        <v>1951.0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>378.0</v>
+        <v>336.0</v>
       </c>
       <c r="B318" t="n">
-        <v>524.0</v>
+        <v>609.0</v>
       </c>
       <c r="C318" t="n">
-        <v>234.0</v>
+        <v>194.0</v>
       </c>
       <c r="D318" t="n">
-        <v>1741.0</v>
+        <v>1956.0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>370.0</v>
+        <v>348.0</v>
       </c>
       <c r="B319" t="n">
-        <v>487.0</v>
+        <v>588.0</v>
       </c>
       <c r="C319" t="n">
-        <v>220.0</v>
+        <v>162.0</v>
       </c>
       <c r="D319" t="n">
-        <v>1663.0</v>
+        <v>1892.0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>326.0</v>
+        <v>319.0</v>
       </c>
       <c r="B320" t="n">
-        <v>467.0</v>
+        <v>622.0</v>
       </c>
       <c r="C320" t="n">
-        <v>189.0</v>
+        <v>141.0</v>
       </c>
       <c r="D320" t="n">
-        <v>1518.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>310.0</v>
+        <v>328.0</v>
       </c>
       <c r="B321" t="n">
-        <v>474.0</v>
+        <v>640.0</v>
       </c>
       <c r="C321" t="n">
-        <v>193.0</v>
+        <v>137.0</v>
       </c>
       <c r="D321" t="n">
-        <v>1497.0</v>
+        <v>1515.0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>325.0</v>
+        <v>375.0</v>
       </c>
       <c r="B322" t="n">
-        <v>620.0</v>
+        <v>720.0</v>
       </c>
       <c r="C322" t="n">
-        <v>156.0</v>
+        <v>125.0</v>
       </c>
       <c r="D322" t="n">
-        <v>1416.0</v>
+        <v>1397.0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>372.0</v>
+        <v>330.0</v>
       </c>
       <c r="B323" t="n">
-        <v>598.0</v>
+        <v>708.0</v>
       </c>
       <c r="C323" t="n">
-        <v>151.0</v>
+        <v>116.0</v>
       </c>
       <c r="D323" t="n">
-        <v>1432.0</v>
+        <v>1394.0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>313.0</v>
+        <v>272.0</v>
       </c>
       <c r="B324" t="n">
-        <v>532.0</v>
+        <v>596.0</v>
       </c>
       <c r="C324" t="n">
-        <v>177.0</v>
+        <v>126.0</v>
       </c>
       <c r="D324" t="n">
-        <v>1378.0</v>
+        <v>1439.0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>338.0</v>
+        <v>289.0</v>
       </c>
       <c r="B325" t="n">
-        <v>573.0</v>
+        <v>618.0</v>
       </c>
       <c r="C325" t="n">
-        <v>180.0</v>
+        <v>141.0</v>
       </c>
       <c r="D325" t="n">
-        <v>1372.0</v>
+        <v>1374.0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>331.0</v>
+        <v>276.0</v>
       </c>
       <c r="B326" t="n">
-        <v>557.0</v>
+        <v>634.0</v>
       </c>
       <c r="C326" t="n">
-        <v>174.0</v>
+        <v>136.0</v>
       </c>
       <c r="D326" t="n">
-        <v>1346.0</v>
+        <v>1221.0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>277.0</v>
+        <v>269.0</v>
       </c>
       <c r="B327" t="n">
-        <v>535.0</v>
+        <v>619.0</v>
       </c>
       <c r="C327" t="n">
-        <v>168.0</v>
+        <v>100.0</v>
       </c>
       <c r="D327" t="n">
-        <v>1304.0</v>
+        <v>1208.0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>346.0</v>
+        <v>289.0</v>
       </c>
       <c r="B328" t="n">
-        <v>532.0</v>
+        <v>714.0</v>
       </c>
       <c r="C328" t="n">
-        <v>156.0</v>
+        <v>103.0</v>
       </c>
       <c r="D328" t="n">
-        <v>1244.0</v>
+        <v>1109.0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>394.0</v>
+        <v>284.0</v>
       </c>
       <c r="B329" t="n">
-        <v>654.0</v>
+        <v>782.0</v>
       </c>
       <c r="C329" t="n">
-        <v>163.0</v>
+        <v>117.0</v>
       </c>
       <c r="D329" t="n">
-        <v>1242.0</v>
+        <v>1011.0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>342.0</v>
+        <v>302.0</v>
       </c>
       <c r="B330" t="n">
-        <v>669.0</v>
+        <v>673.0</v>
       </c>
       <c r="C330" t="n">
-        <v>155.0</v>
+        <v>109.0</v>
       </c>
       <c r="D330" t="n">
-        <v>1293.0</v>
+        <v>1105.0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>314.0</v>
+        <v>276.0</v>
       </c>
       <c r="B331" t="n">
-        <v>471.0</v>
+        <v>590.0</v>
       </c>
       <c r="C331" t="n">
-        <v>191.0</v>
+        <v>148.0</v>
       </c>
       <c r="D331" t="n">
-        <v>1406.0</v>
+        <v>1262.0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>292.0</v>
+        <v>268.0</v>
       </c>
       <c r="B332" t="n">
-        <v>523.0</v>
+        <v>527.0</v>
       </c>
       <c r="C332" t="n">
-        <v>188.0</v>
+        <v>141.0</v>
       </c>
       <c r="D332" t="n">
-        <v>1359.0</v>
+        <v>1246.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>315.0</v>
+        <v>245.0</v>
       </c>
       <c r="B333" t="n">
-        <v>543.0</v>
+        <v>594.0</v>
       </c>
       <c r="C333" t="n">
-        <v>176.0</v>
+        <v>114.0</v>
       </c>
       <c r="D333" t="n">
-        <v>1307.0</v>
+        <v>1147.0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>316.0</v>
+        <v>253.0</v>
       </c>
       <c r="B334" t="n">
-        <v>518.0</v>
+        <v>585.0</v>
       </c>
       <c r="C334" t="n">
-        <v>155.0</v>
+        <v>111.0</v>
       </c>
       <c r="D334" t="n">
-        <v>1258.0</v>
+        <v>1051.0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>287.0</v>
+        <v>242.0</v>
       </c>
       <c r="B335" t="n">
-        <v>546.0</v>
+        <v>613.0</v>
       </c>
       <c r="C335" t="n">
-        <v>181.0</v>
+        <v>117.0</v>
       </c>
       <c r="D335" t="n">
-        <v>1198.0</v>
+        <v>1028.0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>343.0</v>
+        <v>264.0</v>
       </c>
       <c r="B336" t="n">
-        <v>630.0</v>
+        <v>656.0</v>
       </c>
       <c r="C336" t="n">
-        <v>183.0</v>
+        <v>102.0</v>
       </c>
       <c r="D336" t="n">
-        <v>1259.0</v>
+        <v>1046.0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>319.0</v>
+        <v>262.0</v>
       </c>
       <c r="B337" t="n">
-        <v>637.0</v>
+        <v>640.0</v>
       </c>
       <c r="C337" t="n">
-        <v>178.0</v>
+        <v>107.0</v>
       </c>
       <c r="D337" t="n">
-        <v>1318.0</v>
+        <v>1041.0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>313.0</v>
+        <v>242.0</v>
       </c>
       <c r="B338" t="n">
-        <v>450.0</v>
+        <v>507.0</v>
       </c>
       <c r="C338" t="n">
-        <v>153.0</v>
+        <v>119.0</v>
       </c>
       <c r="D338" t="n">
-        <v>1349.0</v>
+        <v>1096.0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>279.0</v>
+        <v>249.0</v>
       </c>
       <c r="B339" t="n">
-        <v>360.0</v>
+        <v>408.0</v>
       </c>
       <c r="C339" t="n">
-        <v>204.0</v>
+        <v>128.0</v>
       </c>
       <c r="D339" t="n">
-        <v>1385.0</v>
+        <v>1255.0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>238.0</v>
+        <v>195.0</v>
       </c>
       <c r="B340" t="n">
-        <v>314.0</v>
+        <v>274.0</v>
       </c>
       <c r="C340" t="n">
-        <v>170.0</v>
+        <v>113.0</v>
       </c>
       <c r="D340" t="n">
-        <v>1291.0</v>
+        <v>1045.0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>214.0</v>
+        <v>178.0</v>
       </c>
       <c r="B341" t="n">
-        <v>187.0</v>
+        <v>159.0</v>
       </c>
       <c r="C341" t="n">
-        <v>151.0</v>
+        <v>120.0</v>
       </c>
       <c r="D341" t="n">
-        <v>1274.0</v>
+        <v>995.0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>208.0</v>
+        <v>168.0</v>
       </c>
       <c r="B342" t="n">
-        <v>136.0</v>
+        <v>134.0</v>
       </c>
       <c r="C342" t="n">
-        <v>147.0</v>
+        <v>122.0</v>
       </c>
       <c r="D342" t="n">
-        <v>1115.0</v>
+        <v>1046.0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>169.0</v>
+        <v>133.0</v>
       </c>
       <c r="B343" t="n">
-        <v>118.0</v>
+        <v>84.0</v>
       </c>
       <c r="C343" t="n">
-        <v>144.0</v>
+        <v>104.0</v>
       </c>
       <c r="D343" t="n">
-        <v>1104.0</v>
+        <v>969.0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>153.0</v>
+        <v>154.0</v>
       </c>
       <c r="B344" t="n">
-        <v>123.0</v>
+        <v>88.0</v>
       </c>
       <c r="C344" t="n">
-        <v>149.0</v>
+        <v>104.0</v>
       </c>
       <c r="D344" t="n">
-        <v>1094.0</v>
+        <v>950.0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>152.0</v>
+        <v>136.0</v>
       </c>
       <c r="B345" t="n">
-        <v>110.0</v>
+        <v>85.0</v>
       </c>
       <c r="C345" t="n">
-        <v>145.0</v>
+        <v>105.0</v>
       </c>
       <c r="D345" t="n">
-        <v>1024.0</v>
+        <v>923.0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>142.0</v>
+        <v>132.0</v>
       </c>
       <c r="B346" t="n">
-        <v>104.0</v>
+        <v>84.0</v>
       </c>
       <c r="C346" t="n">
-        <v>108.0</v>
+        <v>132.0</v>
       </c>
       <c r="D346" t="n">
-        <v>976.0</v>
+        <v>891.0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>119.0</v>
+        <v>118.0</v>
       </c>
       <c r="B347" t="n">
-        <v>88.0</v>
+        <v>61.0</v>
       </c>
       <c r="C347" t="n">
-        <v>100.0</v>
+        <v>92.0</v>
       </c>
       <c r="D347" t="n">
-        <v>933.0</v>
+        <v>850.0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>138.0</v>
+        <v>106.0</v>
       </c>
       <c r="B348" t="n">
-        <v>111.0</v>
+        <v>67.0</v>
       </c>
       <c r="C348" t="n">
-        <v>139.0</v>
+        <v>83.0</v>
       </c>
       <c r="D348" t="n">
-        <v>933.0</v>
+        <v>888.0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>121.0</v>
+        <v>111.0</v>
       </c>
       <c r="B349" t="n">
-        <v>86.0</v>
+        <v>70.0</v>
       </c>
       <c r="C349" t="n">
-        <v>112.0</v>
+        <v>72.0</v>
       </c>
       <c r="D349" t="n">
-        <v>849.0</v>
+        <v>781.0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>114.0</v>
+        <v>94.0</v>
       </c>
       <c r="B350" t="n">
-        <v>93.0</v>
+        <v>53.0</v>
       </c>
       <c r="C350" t="n">
-        <v>112.0</v>
+        <v>82.0</v>
       </c>
       <c r="D350" t="n">
-        <v>920.0</v>
+        <v>756.0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>117.0</v>
+        <v>87.0</v>
       </c>
       <c r="B351" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="C351" t="n">
         <v>84.0</v>
       </c>
-      <c r="C351" t="n">
-        <v>126.0</v>
-      </c>
       <c r="D351" t="n">
-        <v>834.0</v>
+        <v>734.0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>96.0</v>
+        <v>94.0</v>
       </c>
       <c r="B352" t="n">
-        <v>87.0</v>
+        <v>55.0</v>
       </c>
       <c r="C352" t="n">
-        <v>108.0</v>
+        <v>97.0</v>
       </c>
       <c r="D352" t="n">
-        <v>817.0</v>
+        <v>746.0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>119.0</v>
+        <v>100.0</v>
       </c>
       <c r="B353" t="n">
-        <v>88.0</v>
+        <v>59.0</v>
       </c>
       <c r="C353" t="n">
-        <v>84.0</v>
+        <v>92.0</v>
       </c>
       <c r="D353" t="n">
-        <v>798.0</v>
+        <v>733.0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>124.0</v>
+        <v>98.0</v>
       </c>
       <c r="B354" t="n">
-        <v>73.0</v>
+        <v>55.0</v>
       </c>
       <c r="C354" t="n">
-        <v>104.0</v>
+        <v>82.0</v>
       </c>
       <c r="D354" t="n">
-        <v>796.0</v>
+        <v>681.0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>104.0</v>
+        <v>83.0</v>
       </c>
       <c r="B355" t="n">
-        <v>78.0</v>
+        <v>52.0</v>
       </c>
       <c r="C355" t="n">
-        <v>93.0</v>
+        <v>81.0</v>
       </c>
       <c r="D355" t="n">
-        <v>809.0</v>
+        <v>642.0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>120.0</v>
+        <v>71.0</v>
       </c>
       <c r="B356" t="n">
-        <v>84.0</v>
+        <v>61.0</v>
       </c>
       <c r="C356" t="n">
-        <v>104.0</v>
+        <v>80.0</v>
       </c>
       <c r="D356" t="n">
-        <v>808.0</v>
+        <v>703.0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>100.0</v>
+        <v>83.0</v>
       </c>
       <c r="B357" t="n">
-        <v>85.0</v>
+        <v>70.0</v>
       </c>
       <c r="C357" t="n">
-        <v>115.0</v>
+        <v>75.0</v>
       </c>
       <c r="D357" t="n">
-        <v>752.0</v>
+        <v>657.0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>110.0</v>
+        <v>88.0</v>
       </c>
       <c r="B358" t="n">
-        <v>75.0</v>
+        <v>60.0</v>
       </c>
       <c r="C358" t="n">
-        <v>103.0</v>
+        <v>73.0</v>
       </c>
       <c r="D358" t="n">
-        <v>814.0</v>
+        <v>681.0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>110.0</v>
+        <v>82.0</v>
       </c>
       <c r="B359" t="n">
-        <v>83.0</v>
+        <v>53.0</v>
       </c>
       <c r="C359" t="n">
-        <v>89.0</v>
+        <v>77.0</v>
       </c>
       <c r="D359" t="n">
-        <v>811.0</v>
+        <v>669.0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>116.0</v>
+        <v>70.0</v>
       </c>
       <c r="B360" t="n">
-        <v>80.0</v>
+        <v>52.0</v>
       </c>
       <c r="C360" t="n">
-        <v>92.0</v>
+        <v>84.0</v>
       </c>
       <c r="D360" t="n">
-        <v>734.0</v>
+        <v>706.0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>111.0</v>
+        <v>85.0</v>
       </c>
       <c r="B361" t="n">
-        <v>70.0</v>
+        <v>45.0</v>
       </c>
       <c r="C361" t="n">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
       <c r="D361" t="n">
-        <v>782.0</v>
+        <v>618.0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>97.0</v>
+        <v>82.0</v>
       </c>
       <c r="B362" t="n">
-        <v>70.0</v>
+        <v>59.0</v>
       </c>
       <c r="C362" t="n">
-        <v>91.0</v>
+        <v>55.0</v>
       </c>
       <c r="D362" t="n">
-        <v>798.0</v>
+        <v>579.0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>112.0</v>
+        <v>90.0</v>
       </c>
       <c r="B363" t="n">
-        <v>73.0</v>
+        <v>59.0</v>
       </c>
       <c r="C363" t="n">
-        <v>90.0</v>
+        <v>59.0</v>
       </c>
       <c r="D363" t="n">
-        <v>735.0</v>
+        <v>595.0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>103.0</v>
+        <v>93.0</v>
       </c>
       <c r="B364" t="n">
-        <v>80.0</v>
+        <v>69.0</v>
       </c>
       <c r="C364" t="n">
-        <v>105.0</v>
+        <v>74.0</v>
       </c>
       <c r="D364" t="n">
-        <v>728.0</v>
+        <v>635.0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>101.0</v>
+        <v>87.0</v>
       </c>
       <c r="B365" t="n">
-        <v>69.0</v>
+        <v>76.0</v>
       </c>
       <c r="C365" t="n">
-        <v>115.0</v>
+        <v>83.0</v>
       </c>
       <c r="D365" t="n">
-        <v>802.0</v>
+        <v>642.0</v>
       </c>
     </row>
   </sheetData>
